--- a/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_EVE.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_EVE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t xml:space="preserve">Economic Value of Equity (EVE) Report </t>
   </si>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: December, 2019        Evaluation Date: December 31, 2019</t>
   </si>
   <si>
-    <t>Print on: 03/18/20 3:30:55 PM</t>
+    <t>Print on: 03/24/20 12:38:52 PM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -133,6 +133,181 @@
   </si>
   <si>
     <t>The % change in value per 100 basis point shifts in the yield curve, measuring value sensitivity</t>
+  </si>
+  <si>
+    <t>Capital Assets</t>
+  </si>
+  <si>
+    <t>Disclaimer</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Glossary:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.    CUSIP: CUSIP customized for and assigned to the appropriate security;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.    Down N BP: Present value if the yield curve shocks down N BP;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.    Base Case (0 BP): Present value as current yield curve;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.    Up N BP: Present value if the yield curve shocks up N BP;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.    BC/FV (%) = (Base Case - Accrued Interest) / Face Value * 100%;</t>
+  </si>
+  <si>
+    <t>[Note: The inconsequence principal (such as principal of Fixed-Rate Servicing, Adjustable-Rate Servicing) are treated as zero when plusing.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.    Duration(Dur) = (PV if yield curve shocks down 0.1% - PV if yield curve shocks up 0.1%) / (2 * PV * 0.1%), PV means present value;</t>
+  </si>
+  <si>
+    <t>DV01 for OBS items (the values with *): DV01 = (PV if yield curve shocks down 0.1% - PV if yield curve shocks up 0.1%) / (2 * 10000 * 0.1%), PV means present value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.    Convexity(Conv) = (PV if yield curve shocks up 0.1% + PV if yield curve shocks down 0.1% - 2 * PV) / (PV * 0.1% * 0.1%) / 100, PV means present value.</t>
+  </si>
+  <si>
+    <t>Base Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flattener is an interest rate scenario where the shock of the yield curve is "non-parallel". A 300 basis point shock of a yield curve assumes that the yield curve makes an instantaneous upward shift of 300 basis points, as defined by the Table 1 below. In this case, the yield curve has made a parallel shift.
+By way of contrast, a flattener requires the yield curve to shift not by a constant value, such as 300 basis points, along the entire yield curve. Instead a flattener requires the short term rate shifts more than the long term rate. In particular, the scenario requires the overnight rate to shift upward 300 basis points and the 10 year rate to shift upward with a smaller amount of 100 basis points. The rates shift less as the term increases along the yield curve, with 20 basis points less for every year. Table 1 presents the precise rate shift for each term.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 1. The shifts of 300 basis point parallel shock and the flattener non-parallel shock in basis points </t>
+  </si>
+  <si>
+    <t>Term in years</t>
+  </si>
+  <si>
+    <t>Overnight rate</t>
+  </si>
+  <si>
+    <t>1yr</t>
+  </si>
+  <si>
+    <t>2yr</t>
+  </si>
+  <si>
+    <t>3yr</t>
+  </si>
+  <si>
+    <t>4yr</t>
+  </si>
+  <si>
+    <t>5yr</t>
+  </si>
+  <si>
+    <t>6yr</t>
+  </si>
+  <si>
+    <t>7yr</t>
+  </si>
+  <si>
+    <t>8yr</t>
+  </si>
+  <si>
+    <t>9yr</t>
+  </si>
+  <si>
+    <t>10yr</t>
+  </si>
+  <si>
+    <t>10yr+</t>
+  </si>
+  <si>
+    <t>300bpt shock</t>
+  </si>
+  <si>
+    <t>The resulting yield curve after a flattener shift is depicted in Figure 1 as of Dec 31,2019. The blue line is the prevailing yield curve. The red line is the simulated yield curve scenario of the flattener. As Figure 1 shows, the resulting yield curve is relatively flat where the rates are approximately 3% for all the terms up to 10 year. Hence, this scenario is called a flattener.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 1.  Prevailing Yield Curve as of Dec,2019 and the Yield Curve of the Flattener Scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flattener </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The flattener scenario is important to interest rate risk analysis for two reasons. (1) Historically, when the yield curve begins to rise, the short term rates tend to move up faster than the long term rate. Therefore, the flattener is a probable scenario. (2) Many community banks have short term funding of long term fixed rate mortgage loans.  When the yield curve flattens as depicted in Figure 1, then the net interest margin would be tightened. Furthermore, the fixed rate mortgage loans on the book would have a rate lower than the market rate, resulting in the mortgagors holding on to the relatively low borrowing cost for a longer period. This is an adverse scenario that community bank should be aware of.</t>
+  </si>
+  <si>
+    <t>For the reasons given above, banks should monitor the impact of the flattener on the percentage change of Economic Value of Equity (EVE) and percentage change of Net Interest Income (NII) over 12 months and 24 months. The impact should not be much more adverse than that of the scenario of the 200 basis point parallel shock. The percentage of EVE measures the EVE duration risk and the option risk embedded on the balance sheet. Percentage change of NII measures the repricing risk of the balance sheet.</t>
+  </si>
+  <si>
+    <t>Calculation Setting:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valuation Paths: 1          Simulation Paths: 1          Valuation Method: LPS          OAS Type: TSY          Price Model: HoLeeG1F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield Curve: Treasury          Vol Curve: SwaptionHoLeeG1Factor          Parameter Set: Default          CPR Shocks (BP): 0          CDR Shocks (BP): 0</t>
+  </si>
+  <si>
+    <t>Maturity* (with the suffix *) indicates that some items are not taken in averaging the weighted average maturity.</t>
+  </si>
+  <si>
+    <t>The followings show the details about the amount that are not taken into account for the weighted average maturity in the chart of accounts.</t>
+  </si>
+  <si>
+    <t>Total assets(Amounts in 000s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Premises and fixed assets (including capitalized leases) : 1,618.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Other real estate owned : 81.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Others : 1,209.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      LESS: Allowance for loan and lease losses : -725.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Other assets : 2,183.00</t>
+  </si>
+  <si>
+    <t>Total assets : 2,183.00</t>
+  </si>
+  <si>
+    <t>Total liabilities(Amounts in 000s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      MMDAs : 1,603.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Passbook Accounts : 24,018.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Transaction Accounts : 8,628.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Noninterest-bearing Accounts : 14,945.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Deposits : 49,196.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Others : 371.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Other liabilities : 371.00</t>
+  </si>
+  <si>
+    <t>Total liabilities : 49,567.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsliu  bank test &amp; city (HF)-201912 : -47,384.72</t>
+  </si>
+  <si>
+    <t>Print on: 03/24/20 12:38:53 PM</t>
   </si>
   <si>
     <t>Sector</t>
@@ -314,175 +489,6 @@
   </si>
   <si>
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)-201912</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Glossary:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.    CUSIP: CUSIP customized for and assigned to the appropriate security;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.    Down N BP: Present value if the yield curve shocks down N BP;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.    Base Case (0 BP): Present value as current yield curve;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.    Up N BP: Present value if the yield curve shocks up N BP;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.    BC/FV (%) = (Base Case - Accrued Interest) / Face Value * 100%;</t>
-  </si>
-  <si>
-    <t>[Note: The inconsequence principal (such as principal of Fixed-Rate Servicing, Adjustable-Rate Servicing) are treated as zero when plusing.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.    Duration(Dur) = (PV if yield curve shocks down 0.1% - PV if yield curve shocks up 0.1%) / (2 * PV * 0.1%), PV means present value;</t>
-  </si>
-  <si>
-    <t>DV01 for OBS items (the values with *): DV01 = (PV if yield curve shocks down 0.1% - PV if yield curve shocks up 0.1%) / (2 * 10000 * 0.1%), PV means present value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.    Convexity(Conv) = (PV if yield curve shocks up 0.1% + PV if yield curve shocks down 0.1% - 2 * PV) / (PV * 0.1% * 0.1%) / 100, PV means present value.</t>
-  </si>
-  <si>
-    <t>Base Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flattener is an interest rate scenario where the shock of the yield curve is "non-parallel". A 300 basis point shock of a yield curve assumes that the yield curve makes an instantaneous upward shift of 300 basis points, as defined by the Table 1 below. In this case, the yield curve has made a parallel shift.
-By way of contrast, a flattener requires the yield curve to shift not by a constant value, such as 300 basis points, along the entire yield curve. Instead a flattener requires the short term rate shifts more than the long term rate. In particular, the scenario requires the overnight rate to shift upward 300 basis points and the 10 year rate to shift upward with a smaller amount of 100 basis points. The rates shift less as the term increases along the yield curve, with 20 basis points less for every year. Table 1 presents the precise rate shift for each term.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table 1. The shifts of 300 basis point parallel shock and the flattener non-parallel shock in basis points </t>
-  </si>
-  <si>
-    <t>Term in years</t>
-  </si>
-  <si>
-    <t>Overnight rate</t>
-  </si>
-  <si>
-    <t>1yr</t>
-  </si>
-  <si>
-    <t>2yr</t>
-  </si>
-  <si>
-    <t>3yr</t>
-  </si>
-  <si>
-    <t>4yr</t>
-  </si>
-  <si>
-    <t>5yr</t>
-  </si>
-  <si>
-    <t>6yr</t>
-  </si>
-  <si>
-    <t>7yr</t>
-  </si>
-  <si>
-    <t>8yr</t>
-  </si>
-  <si>
-    <t>9yr</t>
-  </si>
-  <si>
-    <t>10yr</t>
-  </si>
-  <si>
-    <t>10yr+</t>
-  </si>
-  <si>
-    <t>300bpt shock</t>
-  </si>
-  <si>
-    <t>The resulting yield curve after a flattener shift is depicted in Figure 1 as of Dec 31,2019. The blue line is the prevailing yield curve. The red line is the simulated yield curve scenario of the flattener. As Figure 1 shows, the resulting yield curve is relatively flat where the rates are approximately 3% for all the terms up to 10 year. Hence, this scenario is called a flattener.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure 1.  Prevailing Yield Curve as of Dec,2019 and the Yield Curve of the Flattener Scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flattener </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The flattener scenario is important to interest rate risk analysis for two reasons. (1) Historically, when the yield curve begins to rise, the short term rates tend to move up faster than the long term rate. Therefore, the flattener is a probable scenario. (2) Many community banks have short term funding of long term fixed rate mortgage loans.  When the yield curve flattens as depicted in Figure 1, then the net interest margin would be tightened. Furthermore, the fixed rate mortgage loans on the book would have a rate lower than the market rate, resulting in the mortgagors holding on to the relatively low borrowing cost for a longer period. This is an adverse scenario that community bank should be aware of.</t>
-  </si>
-  <si>
-    <t>For the reasons given above, banks should monitor the impact of the flattener on the percentage change of Economic Value of Equity (EVE) and percentage change of Net Interest Income (NII) over 12 months and 24 months. The impact should not be much more adverse than that of the scenario of the 200 basis point parallel shock. The percentage of EVE measures the EVE duration risk and the option risk embedded on the balance sheet. Percentage change of NII measures the repricing risk of the balance sheet.</t>
-  </si>
-  <si>
-    <t>Calculation Setting:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valuation Paths: 1          Simulation Paths: 1          Valuation Method: LPS          OAS Type: TSY          Price Model: HoLeeG1F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yield Curve: Treasury          Vol Curve: SwaptionHoLeeG1Factor          Parameter Set: Default          CPR Shocks (BP): 0          CDR Shocks (BP): 0</t>
-  </si>
-  <si>
-    <t>Maturity* (with the suffix *) indicates that some items are not taken in averaging the weighted average maturity.</t>
-  </si>
-  <si>
-    <t>The followings show the details about the amount that are not taken into account for the weighted average maturity in the chart of accounts.</t>
-  </si>
-  <si>
-    <t>Total assets(Amounts in 000s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Premises and fixed assets (including capitalized leases) : 1,618.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Other real estate owned : 81.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Others : 1,209.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      LESS: Allowance for loan and lease losses : -725.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Other assets : 2,183.00</t>
-  </si>
-  <si>
-    <t>Total assets : 2,183.00</t>
-  </si>
-  <si>
-    <t>Total liabilities(Amounts in 000s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      MMDAs : 1,603.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Passbook Accounts : 24,018.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Transaction Accounts : 8,628.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Noninterest-bearing Accounts : 14,945.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Deposits : 49,196.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Others : 371.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Other liabilities : 371.00</t>
-  </si>
-  <si>
-    <t>Total liabilities : 49,567.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jsliu  bank test &amp; city (HF)-201912 : -47,384.72</t>
-  </si>
-  <si>
-    <t>Disclaimer</t>
   </si>
 </sst>
 </file>
@@ -2672,8 +2678,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36585825155227925"/>
-          <c:y val="3.2453325409796188E-2"/>
+          <c:x val="0.36585825155227936"/>
+          <c:y val="3.2453325409796202E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2775,8 +2781,8 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="103373056"/>
-        <c:axId val="103374848"/>
+        <c:axId val="92031232"/>
+        <c:axId val="92037120"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2943,7 +2949,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103373056"/>
+        <c:axId val="92031232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,14 +2987,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103374848"/>
+        <c:crossAx val="92037120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103374848"/>
+        <c:axId val="92037120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3034,7 +3040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103373056"/>
+        <c:crossAx val="92031232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3078,7 +3084,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000766" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000766" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000777" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000777" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3139,8 +3145,8 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="101934208"/>
-        <c:axId val="101935744"/>
+        <c:axId val="92048384"/>
+        <c:axId val="92074752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3157,7 +3163,7 @@
           </c:spPr>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary'!E9</c:f>
+              <c:f>'Summary'!H28</c:f>
               <c:strCache>
                 <c:ptCount val="0"/>
               </c:strCache>
@@ -3185,17 +3191,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary'!$E$10:$E$19</c:f>
+              <c:f>'Summary'!$H$29:$H$38</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </ser>
         <c:smooth val="0"/>
-        <c:axId val="101935745"/>
-        <c:axId val="101935746"/>
+        <c:axId val="92074753"/>
+        <c:axId val="92074754"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101934208"/>
+        <c:axId val="92048384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3233,14 +3239,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101935744"/>
+        <c:crossAx val="92074752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101935744"/>
+        <c:axId val="92074752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="12"/>
@@ -3306,26 +3312,26 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101934208"/>
+        <c:crossAx val="92048384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="101935745"/>
+        <c:axId val="92074753"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="101935746"/>
+        <c:crossAx val="92074754"/>
         <c:crosses val="autoZero"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101935746"/>
+        <c:axId val="92074754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="12000"/>
+          <c:min val="89000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -3340,7 +3346,7 @@
                     <a:latin typeface="Ubuntu"/>
                     <a:cs typeface="Ubuntu"/>
                   </a:rPr>
-                  <a:t>$Amount</a:t>
+                  <a:t>Capital Assets</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3354,7 +3360,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="101935745"/>
+        <c:crossAx val="92074753"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3433,7 +3439,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000788" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000788" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000799" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000799" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3478,6 +3484,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3581,11 +3588,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </ser>
-        <c:axId val="108139648"/>
-        <c:axId val="108141184"/>
+        <c:axId val="93168000"/>
+        <c:axId val="93169536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108139648"/>
+        <c:axId val="93168000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3623,12 +3630,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108141184"/>
+        <c:crossAx val="93169536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108141184"/>
+        <c:axId val="93169536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3668,7 +3675,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="6.6519673399882172E-3"/>
-              <c:y val="0.37395733983956386"/>
+              <c:y val="0.37395733983956392"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -3696,7 +3703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108139648"/>
+        <c:crossAx val="93168000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3710,6 +3717,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3743,7 +3751,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000788" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000788" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000799" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000799" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3950,11 +3958,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="108182912"/>
-        <c:axId val="108197376"/>
+        <c:axId val="93276800"/>
+        <c:axId val="93287168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108182912"/>
+        <c:axId val="93276800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3995,12 +4003,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108197376"/>
+        <c:crossAx val="93287168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108197376"/>
+        <c:axId val="93287168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4021,7 +4029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108182912"/>
+        <c:crossAx val="93276800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4058,20 +4066,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>843915</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FBC450-9F79-4EF8-B62B-A123B7A640F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63FBC450-9F79-4EF8-B62B-A123B7A640F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4092,22 +4100,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
+      <xdr:colOff>981075</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>426175</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>473800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64304E9D-A8BA-4370-84B4-25B00CBFDDDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64304E9D-A8BA-4370-84B4-25B00CBFDDDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4148,7 +4156,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FBC450-9F79-4EF8-B62B-A123B7A640F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63FBC450-9F79-4EF8-B62B-A123B7A640F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4219,7 +4227,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285B5163-0187-4EEC-980D-9FB4FB5791D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{285B5163-0187-4EEC-980D-9FB4FB5791D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4689,7 +4697,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection sqref="A1:M1"/>
@@ -5129,6 +5137,66 @@
       <c r="F26" s="254"/>
       <c r="G26" s="251"/>
     </row>
+    <row r="28" ht="9.95" customHeight="1">
+      <c r="H28" s="227" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" ht="9.95" customHeight="1">
+      <c r="H29" s="249">
+        <v>116338.42734398923</v>
+      </c>
+    </row>
+    <row r="30" ht="9.95" customHeight="1">
+      <c r="H30" s="249">
+        <v>114795.2348916972</v>
+      </c>
+    </row>
+    <row r="31" ht="9.95" customHeight="1">
+      <c r="H31" s="249">
+        <v>113509.08046013973</v>
+      </c>
+    </row>
+    <row r="32" ht="9.95" customHeight="1">
+      <c r="H32" s="249">
+        <v>112153.55805661147</v>
+      </c>
+    </row>
+    <row r="33" ht="9.95" customHeight="1">
+      <c r="H33" s="249">
+        <v>110781.24529712075</v>
+      </c>
+    </row>
+    <row r="34" ht="9.95" customHeight="1">
+      <c r="H34" s="249">
+        <v>109494.96036181765</v>
+      </c>
+    </row>
+    <row r="35" ht="9.95" customHeight="1">
+      <c r="H35" s="249">
+        <v>107045.55042771756</v>
+      </c>
+    </row>
+    <row r="36" ht="9.95" customHeight="1">
+      <c r="H36" s="249">
+        <v>103448.56351612024</v>
+      </c>
+    </row>
+    <row r="37" ht="9.95" customHeight="1">
+      <c r="H37" s="249">
+        <v>99546.1010337897</v>
+      </c>
+    </row>
+    <row r="38" ht="9.95" customHeight="1">
+      <c r="H38" s="249">
+        <v>106388.637195554</v>
+      </c>
+    </row>
+    <row r="39" ht="9.95" customHeight="1">
+      <c r="H39" s="249">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A21:M21"/>
@@ -5146,8 +5214,8 @@
     <oddFooter>&amp;C&amp;"Ubuntu,Regular"&amp;8&amp;K00-048Thomas Ho Company Ltd.
 https://www.thcdecisions.com | lxu@thc.net.cn&amp;R&amp;"Ubuntu,Regular"&amp;8&amp;K00-048&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawingHF r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5232,19 +5300,19 @@
       <c r="K3" s="237"/>
       <c r="L3" s="237"/>
       <c r="R3" s="239" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" ht="8.1" customHeight="1"/>
     <row r="5" ht="28.5">
       <c r="A5" s="233" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B5" s="236" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C5" s="236" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D5" s="238" t="s">
         <v>15</v>
@@ -5277,24 +5345,24 @@
         <v>24</v>
       </c>
       <c r="N5" s="238" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="O5" s="238" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="P5" s="236" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="236" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="R5" s="236" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="269" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B6" s="270"/>
       <c r="C6" s="270"/>
@@ -5316,7 +5384,7 @@
     </row>
     <row r="7">
       <c r="A7" s="274" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="B7" s="275">
         <v>5.170114552357802</v>
@@ -5372,7 +5440,7 @@
     </row>
     <row r="8">
       <c r="A8" s="274" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B8" s="275">
         <v>5.170114552357802</v>
@@ -5428,7 +5496,7 @@
     </row>
     <row r="9">
       <c r="A9" s="274" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B9" s="275">
         <v>0.79135050639771976</v>
@@ -5484,7 +5552,7 @@
     </row>
     <row r="10">
       <c r="A10" s="279" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B10" s="280">
         <v>37.543800160535064</v>
@@ -5540,7 +5608,7 @@
     </row>
     <row r="12">
       <c r="A12" s="269" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="B12" s="270"/>
       <c r="C12" s="270"/>
@@ -5562,7 +5630,7 @@
     </row>
     <row r="13" outlineLevel="2">
       <c r="A13" s="284" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="B13" s="242">
         <v>0</v>
@@ -5618,7 +5686,7 @@
     </row>
     <row r="14" outlineLevel="2">
       <c r="A14" s="284" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="B14" s="242">
         <v>1.55</v>
@@ -5674,7 +5742,7 @@
     </row>
     <row r="15" outlineLevel="1">
       <c r="A15" s="285" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="B15" s="286">
         <v>0.51602852009880984</v>
@@ -5730,7 +5798,7 @@
     </row>
     <row r="16" outlineLevel="2">
       <c r="A16" s="289" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B16" s="242">
         <v>3.3044058745</v>
@@ -5786,7 +5854,7 @@
     </row>
     <row r="17" outlineLevel="2">
       <c r="A17" s="290" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="B17" s="286">
         <v>3.3044058745</v>
@@ -5842,7 +5910,7 @@
     </row>
     <row r="18" outlineLevel="2">
       <c r="A18" s="284" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="B18" s="242">
         <v>2.6785714286</v>
@@ -5898,7 +5966,7 @@
     </row>
     <row r="19" outlineLevel="2">
       <c r="A19" s="291" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B19" s="242">
         <v>2.66782748034572</v>
@@ -5954,7 +6022,7 @@
     </row>
     <row r="20" outlineLevel="2">
       <c r="A20" s="292" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B20" s="286">
         <v>2.66782748034572</v>
@@ -6010,7 +6078,7 @@
     </row>
     <row r="21" outlineLevel="2">
       <c r="A21" s="291" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B21" s="242">
         <v>2.2279546278</v>
@@ -6066,7 +6134,7 @@
     </row>
     <row r="22" outlineLevel="2">
       <c r="A22" s="292" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="B22" s="286">
         <v>2.2279546278</v>
@@ -6122,7 +6190,7 @@
     </row>
     <row r="23" outlineLevel="2">
       <c r="A23" s="290" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="B23" s="286">
         <v>2.5945945946245947</v>
@@ -6178,7 +6246,7 @@
     </row>
     <row r="24" outlineLevel="1">
       <c r="A24" s="285" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="B24" s="286">
         <v>2.9723266142955755</v>
@@ -6234,7 +6302,7 @@
     </row>
     <row r="25" outlineLevel="2">
       <c r="A25" s="291" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B25" s="242">
         <v>7.6808180531</v>
@@ -6290,7 +6358,7 @@
     </row>
     <row r="26" outlineLevel="2">
       <c r="A26" s="291" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="B26" s="242">
         <v>7.6808180531</v>
@@ -6346,7 +6414,7 @@
     </row>
     <row r="27" outlineLevel="2">
       <c r="A27" s="292" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B27" s="286">
         <v>7.6808180531</v>
@@ -6402,7 +6470,7 @@
     </row>
     <row r="28" outlineLevel="2">
       <c r="A28" s="289" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="B28" s="242">
         <v>5.0003163474</v>
@@ -6458,7 +6526,7 @@
     </row>
     <row r="29" outlineLevel="2">
       <c r="A29" s="291" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="B29" s="242">
         <v>6.6193475177</v>
@@ -6514,7 +6582,7 @@
     </row>
     <row r="30" outlineLevel="2">
       <c r="A30" s="293" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="B30" s="242">
         <v>5.7629889347</v>
@@ -6570,7 +6638,7 @@
     </row>
     <row r="31" outlineLevel="2">
       <c r="A31" s="293" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="B31" s="242">
         <v>6.6193475177</v>
@@ -6626,7 +6694,7 @@
     </row>
     <row r="32" outlineLevel="2">
       <c r="A32" s="294" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="B32" s="286">
         <v>5.7731989960058474</v>
@@ -6682,7 +6750,7 @@
     </row>
     <row r="33" outlineLevel="2">
       <c r="A33" s="292" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="B33" s="286">
         <v>5.8082859463737142</v>
@@ -6738,7 +6806,7 @@
     </row>
     <row r="34" outlineLevel="2">
       <c r="A34" s="291" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="B34" s="242">
         <v>5.0003163474</v>
@@ -6794,7 +6862,7 @@
     </row>
     <row r="35" outlineLevel="2">
       <c r="A35" s="291" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="B35" s="242">
         <v>5.0003163474</v>
@@ -6850,7 +6918,7 @@
     </row>
     <row r="36" outlineLevel="2">
       <c r="A36" s="292" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="B36" s="286">
         <v>5.0003163474</v>
@@ -6906,7 +6974,7 @@
     </row>
     <row r="37" outlineLevel="2">
       <c r="A37" s="290" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="B37" s="286">
         <v>5.7491116553607915</v>
@@ -6962,7 +7030,7 @@
     </row>
     <row r="38" outlineLevel="2">
       <c r="A38" s="284" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="B38" s="242">
         <v>5.7602513035</v>
@@ -7018,7 +7086,7 @@
     </row>
     <row r="39" outlineLevel="2">
       <c r="A39" s="284" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B39" s="242">
         <v>5.75</v>
@@ -7074,7 +7142,7 @@
     </row>
     <row r="40" outlineLevel="2">
       <c r="A40" s="289" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="B40" s="242">
         <v>7.6157673173</v>
@@ -7130,7 +7198,7 @@
     </row>
     <row r="41" outlineLevel="2">
       <c r="A41" s="289" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="B41" s="242">
         <v>7.6157673173000004</v>
@@ -7186,7 +7254,7 @@
     </row>
     <row r="42" outlineLevel="2">
       <c r="A42" s="290" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="B42" s="286">
         <v>7.6157673173</v>
@@ -7242,7 +7310,7 @@
     </row>
     <row r="43" outlineLevel="2">
       <c r="A43" s="284" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="B43" s="242">
         <v>5.9518943296</v>
@@ -7298,7 +7366,7 @@
     </row>
     <row r="44" outlineLevel="1">
       <c r="A44" s="285" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="B44" s="286">
         <v>5.9186654191109449</v>
@@ -7354,13 +7422,13 @@
     </row>
     <row r="45" outlineLevel="2">
       <c r="A45" s="284" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="B45" s="242">
         <v>0</v>
       </c>
       <c r="C45" s="272" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D45" s="241">
         <v>1618</v>
@@ -7410,13 +7478,13 @@
     </row>
     <row r="46" outlineLevel="2">
       <c r="A46" s="284" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="B46" s="242">
         <v>0</v>
       </c>
       <c r="C46" s="272" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D46" s="241">
         <v>81</v>
@@ -7466,13 +7534,13 @@
     </row>
     <row r="47" outlineLevel="2">
       <c r="A47" s="284" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="B47" s="242">
         <v>0</v>
       </c>
       <c r="C47" s="272" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D47" s="241">
         <v>1209</v>
@@ -7522,13 +7590,13 @@
     </row>
     <row r="48" outlineLevel="2">
       <c r="A48" s="284" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="B48" s="242">
         <v>0</v>
       </c>
       <c r="C48" s="272" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D48" s="241">
         <v>-725</v>
@@ -7578,13 +7646,13 @@
     </row>
     <row r="49" outlineLevel="1">
       <c r="A49" s="285" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="B49" s="286">
         <v>0</v>
       </c>
       <c r="C49" s="295" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D49" s="287">
         <v>2183</v>
@@ -7634,7 +7702,7 @@
     </row>
     <row r="50">
       <c r="A50" s="296" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="B50" s="286">
         <v>5.170114552357802</v>
@@ -7690,7 +7758,7 @@
     </row>
     <row r="52">
       <c r="A52" s="269" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="B52" s="270"/>
       <c r="C52" s="270"/>
@@ -7712,7 +7780,7 @@
     </row>
     <row r="53" outlineLevel="2">
       <c r="A53" s="284" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="B53" s="242">
         <v>1.19556979049893</v>
@@ -7768,13 +7836,13 @@
     </row>
     <row r="54" outlineLevel="2">
       <c r="A54" s="284" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B54" s="242">
         <v>0.80152102589999985</v>
       </c>
       <c r="C54" s="272" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D54" s="241">
         <v>1726.2027071345299</v>
@@ -7824,13 +7892,13 @@
     </row>
     <row r="55" outlineLevel="2">
       <c r="A55" s="284" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="B55" s="242">
         <v>0.8015210259</v>
       </c>
       <c r="C55" s="272" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D55" s="241">
         <v>25001.620562999502</v>
@@ -7880,13 +7948,13 @@
     </row>
     <row r="56" outlineLevel="2">
       <c r="A56" s="284" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="B56" s="242">
         <v>0.281119982</v>
       </c>
       <c r="C56" s="272" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D56" s="241">
         <v>8980.37824203244</v>
@@ -7936,13 +8004,13 @@
     </row>
     <row r="57" outlineLevel="2">
       <c r="A57" s="284" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="B57" s="242">
         <v>0</v>
       </c>
       <c r="C57" s="272" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D57" s="241">
         <v>15449.5638268403</v>
@@ -7992,7 +8060,7 @@
     </row>
     <row r="58" outlineLevel="1">
       <c r="A58" s="285" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="B58" s="286">
         <v>0.79455040871786742</v>
@@ -8048,13 +8116,13 @@
     </row>
     <row r="59" outlineLevel="2">
       <c r="A59" s="284" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="B59" s="242">
         <v>0</v>
       </c>
       <c r="C59" s="272" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D59" s="241">
         <v>371</v>
@@ -8104,13 +8172,13 @@
     </row>
     <row r="60" outlineLevel="1">
       <c r="A60" s="285" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="B60" s="286">
         <v>0</v>
       </c>
       <c r="C60" s="295" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D60" s="287">
         <v>371</v>
@@ -8160,7 +8228,7 @@
     </row>
     <row r="61">
       <c r="A61" s="296" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="B61" s="286">
         <v>0.79135050639771976</v>
@@ -8216,7 +8284,7 @@
     </row>
     <row r="63">
       <c r="A63" s="269" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="B63" s="270"/>
       <c r="C63" s="270"/>
@@ -8238,7 +8306,7 @@
     </row>
     <row r="64">
       <c r="A64" s="296" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="B64" s="286">
         <v>37.543800160535064</v>
@@ -8338,7 +8406,7 @@
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" s="230" customFormat="1">
       <c r="A1" s="262" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B1" s="262"/>
       <c r="C1" s="262"/>
@@ -8362,58 +8430,58 @@
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="244" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="227" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="227" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="227" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="227" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="227" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="227" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="227" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="227" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="227" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="244"/>
       <c r="E14" s="227" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="G14" s="227" t="s">
         <v>24</v>
@@ -8492,7 +8560,7 @@
     </row>
     <row r="26" ht="72.75" customHeight="1">
       <c r="A26" s="261" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="B26" s="261"/>
       <c r="C26" s="261"/>
@@ -8516,48 +8584,48 @@
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="227" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="B29" s="245" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="C29" s="245" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="D29" s="245" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="E29" s="245" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="F29" s="245" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="G29" s="245" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="H29" s="245" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="I29" s="245" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="J29" s="245" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="K29" s="245" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="L29" s="245" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="M29" s="245" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="N29" s="245" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
@@ -8603,7 +8671,7 @@
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="B31" s="245" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C31" s="245">
         <v>300</v>
@@ -8644,7 +8712,7 @@
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="A33" s="261" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B33" s="261"/>
       <c r="C33" s="261"/>
@@ -8666,15 +8734,15 @@
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" s="227" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="E37" s="227" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="F37" s="227" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
@@ -8833,7 +8901,7 @@
     </row>
     <row r="53" ht="57.75" customHeight="1">
       <c r="A53" s="261" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B53" s="261"/>
       <c r="C53" s="261"/>
@@ -8854,7 +8922,7 @@
     </row>
     <row r="54" ht="44.25" customHeight="1">
       <c r="A54" s="261" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="B54" s="261"/>
       <c r="C54" s="261"/>
@@ -8894,112 +8962,112 @@
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" s="244" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="227" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="227" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="227" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="227" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="227" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="227" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="227" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="227" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="227" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="227" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="227" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="227" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="227" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="227" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="227" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="227" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="227" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="227" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="227" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="227" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="227" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -9055,7 +9123,7 @@
   <sheetData>
     <row r="1" ht="24.75">
       <c r="A1" s="263" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="B1" s="263"/>
       <c r="C1" s="263"/>

--- a/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_EVE.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_EVE.xlsx
@@ -30,7 +30,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
-    <t xml:space="preserve">Economic Value of Equity (EVE) Report </t>
+    <t>Economic Value of Equity (EVE) Report</t>
   </si>
   <si>
     <t xml:space="preserve">Portfolio Name: jsliu  bank test &amp; city (HF)-201912</t>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: December, 2019        Evaluation Date: December 31, 2019</t>
   </si>
   <si>
-    <t>Print on: 03/24/20 12:38:52 PM</t>
+    <t>Printed on: 04/13/20 2:04:06 PM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -250,6 +250,9 @@
     <t xml:space="preserve">Yield Curve: Treasury          Vol Curve: SwaptionHoLeeG1Factor          Parameter Set: Default          CPR Shocks (BP): 0          CDR Shocks (BP): 0</t>
   </si>
   <si>
+    <t>AllowNegative: Allow negative on Lattice</t>
+  </si>
+  <si>
     <t>Maturity* (with the suffix *) indicates that some items are not taken in averaging the weighted average maturity.</t>
   </si>
   <si>
@@ -305,9 +308,6 @@
   </si>
   <si>
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)-201912 : -47,384.72</t>
-  </si>
-  <si>
-    <t>Print on: 03/24/20 12:38:53 PM</t>
   </si>
   <si>
     <t>Sector</t>
@@ -2761,12 +2761,12 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>=Summary!$D$10:$D$19</c:f>
+              <c:f>='Summary'!$D$10:$D$19</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>=Summary!$G$10:$G$19</c:f>
+              <c:f>='Summary'!$G$10:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;\-#,##0.00;\-</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3125,12 +3125,12 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>=Summary!$D$10:$D$19</c:f>
+              <c:f>='Summary'!$D$10:$D$19</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>=Summary!$H$10:$H$19</c:f>
+              <c:f>='Summary'!$H$10:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;\-#,##0.00;\-</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5300,7 +5300,7 @@
       <c r="K3" s="237"/>
       <c r="L3" s="237"/>
       <c r="R3" s="239" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="8.1" customHeight="1"/>
@@ -8379,7 +8379,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection sqref="A1:Q1"/>
@@ -8975,8 +8975,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="227" t="s">
+    <row r="59">
+      <c r="A59" s="227" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9068,6 +9068,11 @@
     <row r="78">
       <c r="A78" s="227" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="227" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_EVE.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_EVE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Economic Value of Equity (EVE) Report</t>
   </si>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: December, 2019        Evaluation Date: December 31, 2019</t>
   </si>
   <si>
-    <t>Printed on: 04/13/20 2:04:06 PM</t>
+    <t>Printed on: 04/16/20 2:12:21 PM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yield Curve: Treasury          Vol Curve: SwaptionHoLeeG1Factor          Parameter Set: Default          CPR Shocks (BP): 0          CDR Shocks (BP): 0</t>
-  </si>
-  <si>
-    <t>AllowNegative: Allow negative on Lattice</t>
   </si>
   <si>
     <t>Maturity* (with the suffix *) indicates that some items are not taken in averaging the weighted average maturity.</t>
@@ -5306,13 +5303,13 @@
     <row r="4" ht="8.1" customHeight="1"/>
     <row r="5" ht="28.5">
       <c r="A5" s="233" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="236" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="236" t="s">
+      <c r="C5" s="236" t="s">
         <v>94</v>
-      </c>
-      <c r="C5" s="236" t="s">
-        <v>95</v>
       </c>
       <c r="D5" s="238" t="s">
         <v>15</v>
@@ -5345,24 +5342,24 @@
         <v>24</v>
       </c>
       <c r="N5" s="238" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="238" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="238" t="s">
+      <c r="P5" s="236" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="236" t="s">
+      <c r="Q5" s="236" t="s">
         <v>98</v>
       </c>
-      <c r="Q5" s="236" t="s">
+      <c r="R5" s="236" t="s">
         <v>99</v>
-      </c>
-      <c r="R5" s="236" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="269" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="270"/>
       <c r="C6" s="270"/>
@@ -5384,7 +5381,7 @@
     </row>
     <row r="7">
       <c r="A7" s="274" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="275">
         <v>5.170114552357802</v>
@@ -5440,7 +5437,7 @@
     </row>
     <row r="8">
       <c r="A8" s="274" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="275">
         <v>5.170114552357802</v>
@@ -5496,7 +5493,7 @@
     </row>
     <row r="9">
       <c r="A9" s="274" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="275">
         <v>0.79135050639771976</v>
@@ -5552,7 +5549,7 @@
     </row>
     <row r="10">
       <c r="A10" s="279" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="280">
         <v>37.543800160535064</v>
@@ -5608,7 +5605,7 @@
     </row>
     <row r="12">
       <c r="A12" s="269" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="270"/>
       <c r="C12" s="270"/>
@@ -5630,7 +5627,7 @@
     </row>
     <row r="13" outlineLevel="2">
       <c r="A13" s="284" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="242">
         <v>0</v>
@@ -5686,7 +5683,7 @@
     </row>
     <row r="14" outlineLevel="2">
       <c r="A14" s="284" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="242">
         <v>1.55</v>
@@ -5742,7 +5739,7 @@
     </row>
     <row r="15" outlineLevel="1">
       <c r="A15" s="285" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="286">
         <v>0.51602852009880984</v>
@@ -5798,7 +5795,7 @@
     </row>
     <row r="16" outlineLevel="2">
       <c r="A16" s="289" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="242">
         <v>3.3044058745</v>
@@ -5854,7 +5851,7 @@
     </row>
     <row r="17" outlineLevel="2">
       <c r="A17" s="290" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="286">
         <v>3.3044058745</v>
@@ -5910,7 +5907,7 @@
     </row>
     <row r="18" outlineLevel="2">
       <c r="A18" s="284" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="242">
         <v>2.6785714286</v>
@@ -5966,7 +5963,7 @@
     </row>
     <row r="19" outlineLevel="2">
       <c r="A19" s="291" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="242">
         <v>2.66782748034572</v>
@@ -6022,7 +6019,7 @@
     </row>
     <row r="20" outlineLevel="2">
       <c r="A20" s="292" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="286">
         <v>2.66782748034572</v>
@@ -6078,7 +6075,7 @@
     </row>
     <row r="21" outlineLevel="2">
       <c r="A21" s="291" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="242">
         <v>2.2279546278</v>
@@ -6134,7 +6131,7 @@
     </row>
     <row r="22" outlineLevel="2">
       <c r="A22" s="292" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="286">
         <v>2.2279546278</v>
@@ -6190,7 +6187,7 @@
     </row>
     <row r="23" outlineLevel="2">
       <c r="A23" s="290" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="286">
         <v>2.5945945946245947</v>
@@ -6246,7 +6243,7 @@
     </row>
     <row r="24" outlineLevel="1">
       <c r="A24" s="285" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="286">
         <v>2.9723266142955755</v>
@@ -6302,7 +6299,7 @@
     </row>
     <row r="25" outlineLevel="2">
       <c r="A25" s="291" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="242">
         <v>7.6808180531</v>
@@ -6358,7 +6355,7 @@
     </row>
     <row r="26" outlineLevel="2">
       <c r="A26" s="291" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="242">
         <v>7.6808180531</v>
@@ -6414,7 +6411,7 @@
     </row>
     <row r="27" outlineLevel="2">
       <c r="A27" s="292" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="286">
         <v>7.6808180531</v>
@@ -6470,7 +6467,7 @@
     </row>
     <row r="28" outlineLevel="2">
       <c r="A28" s="289" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="242">
         <v>5.0003163474</v>
@@ -6526,7 +6523,7 @@
     </row>
     <row r="29" outlineLevel="2">
       <c r="A29" s="291" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="242">
         <v>6.6193475177</v>
@@ -6582,7 +6579,7 @@
     </row>
     <row r="30" outlineLevel="2">
       <c r="A30" s="293" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="242">
         <v>5.7629889347</v>
@@ -6638,7 +6635,7 @@
     </row>
     <row r="31" outlineLevel="2">
       <c r="A31" s="293" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="242">
         <v>6.6193475177</v>
@@ -6694,7 +6691,7 @@
     </row>
     <row r="32" outlineLevel="2">
       <c r="A32" s="294" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="286">
         <v>5.7731989960058474</v>
@@ -6750,7 +6747,7 @@
     </row>
     <row r="33" outlineLevel="2">
       <c r="A33" s="292" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="286">
         <v>5.8082859463737142</v>
@@ -6806,7 +6803,7 @@
     </row>
     <row r="34" outlineLevel="2">
       <c r="A34" s="291" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="242">
         <v>5.0003163474</v>
@@ -6862,7 +6859,7 @@
     </row>
     <row r="35" outlineLevel="2">
       <c r="A35" s="291" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="242">
         <v>5.0003163474</v>
@@ -6918,7 +6915,7 @@
     </row>
     <row r="36" outlineLevel="2">
       <c r="A36" s="292" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="286">
         <v>5.0003163474</v>
@@ -6974,7 +6971,7 @@
     </row>
     <row r="37" outlineLevel="2">
       <c r="A37" s="290" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" s="286">
         <v>5.7491116553607915</v>
@@ -7030,7 +7027,7 @@
     </row>
     <row r="38" outlineLevel="2">
       <c r="A38" s="284" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="242">
         <v>5.7602513035</v>
@@ -7086,7 +7083,7 @@
     </row>
     <row r="39" outlineLevel="2">
       <c r="A39" s="284" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="242">
         <v>5.75</v>
@@ -7142,7 +7139,7 @@
     </row>
     <row r="40" outlineLevel="2">
       <c r="A40" s="289" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="242">
         <v>7.6157673173</v>
@@ -7198,7 +7195,7 @@
     </row>
     <row r="41" outlineLevel="2">
       <c r="A41" s="289" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" s="242">
         <v>7.6157673173000004</v>
@@ -7254,7 +7251,7 @@
     </row>
     <row r="42" outlineLevel="2">
       <c r="A42" s="290" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" s="286">
         <v>7.6157673173</v>
@@ -7310,7 +7307,7 @@
     </row>
     <row r="43" outlineLevel="2">
       <c r="A43" s="284" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" s="242">
         <v>5.9518943296</v>
@@ -7366,7 +7363,7 @@
     </row>
     <row r="44" outlineLevel="1">
       <c r="A44" s="285" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" s="286">
         <v>5.9186654191109449</v>
@@ -7422,13 +7419,13 @@
     </row>
     <row r="45" outlineLevel="2">
       <c r="A45" s="284" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="242">
         <v>0</v>
       </c>
       <c r="C45" s="272" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="241">
         <v>1618</v>
@@ -7478,13 +7475,13 @@
     </row>
     <row r="46" outlineLevel="2">
       <c r="A46" s="284" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" s="242">
         <v>0</v>
       </c>
       <c r="C46" s="272" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="241">
         <v>81</v>
@@ -7534,13 +7531,13 @@
     </row>
     <row r="47" outlineLevel="2">
       <c r="A47" s="284" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" s="242">
         <v>0</v>
       </c>
       <c r="C47" s="272" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="241">
         <v>1209</v>
@@ -7590,13 +7587,13 @@
     </row>
     <row r="48" outlineLevel="2">
       <c r="A48" s="284" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B48" s="242">
         <v>0</v>
       </c>
       <c r="C48" s="272" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="241">
         <v>-725</v>
@@ -7646,13 +7643,13 @@
     </row>
     <row r="49" outlineLevel="1">
       <c r="A49" s="285" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" s="286">
         <v>0</v>
       </c>
       <c r="C49" s="295" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" s="287">
         <v>2183</v>
@@ -7702,7 +7699,7 @@
     </row>
     <row r="50">
       <c r="A50" s="296" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" s="286">
         <v>5.170114552357802</v>
@@ -7758,7 +7755,7 @@
     </row>
     <row r="52">
       <c r="A52" s="269" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52" s="270"/>
       <c r="C52" s="270"/>
@@ -7780,7 +7777,7 @@
     </row>
     <row r="53" outlineLevel="2">
       <c r="A53" s="284" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B53" s="242">
         <v>1.19556979049893</v>
@@ -7836,13 +7833,13 @@
     </row>
     <row r="54" outlineLevel="2">
       <c r="A54" s="284" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54" s="242">
         <v>0.80152102589999985</v>
       </c>
       <c r="C54" s="272" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D54" s="241">
         <v>1726.2027071345299</v>
@@ -7892,13 +7889,13 @@
     </row>
     <row r="55" outlineLevel="2">
       <c r="A55" s="284" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="242">
         <v>0.8015210259</v>
       </c>
       <c r="C55" s="272" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D55" s="241">
         <v>25001.620562999502</v>
@@ -7948,13 +7945,13 @@
     </row>
     <row r="56" outlineLevel="2">
       <c r="A56" s="284" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B56" s="242">
         <v>0.281119982</v>
       </c>
       <c r="C56" s="272" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D56" s="241">
         <v>8980.37824203244</v>
@@ -8004,13 +8001,13 @@
     </row>
     <row r="57" outlineLevel="2">
       <c r="A57" s="284" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B57" s="242">
         <v>0</v>
       </c>
       <c r="C57" s="272" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D57" s="241">
         <v>15449.5638268403</v>
@@ -8060,7 +8057,7 @@
     </row>
     <row r="58" outlineLevel="1">
       <c r="A58" s="285" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B58" s="286">
         <v>0.79455040871786742</v>
@@ -8116,13 +8113,13 @@
     </row>
     <row r="59" outlineLevel="2">
       <c r="A59" s="284" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" s="242">
         <v>0</v>
       </c>
       <c r="C59" s="272" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D59" s="241">
         <v>371</v>
@@ -8172,13 +8169,13 @@
     </row>
     <row r="60" outlineLevel="1">
       <c r="A60" s="285" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" s="286">
         <v>0</v>
       </c>
       <c r="C60" s="295" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D60" s="287">
         <v>371</v>
@@ -8228,7 +8225,7 @@
     </row>
     <row r="61">
       <c r="A61" s="296" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" s="286">
         <v>0.79135050639771976</v>
@@ -8284,7 +8281,7 @@
     </row>
     <row r="63">
       <c r="A63" s="269" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B63" s="270"/>
       <c r="C63" s="270"/>
@@ -8306,7 +8303,7 @@
     </row>
     <row r="64">
       <c r="A64" s="296" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" s="286">
         <v>37.543800160535064</v>
@@ -8379,7 +8376,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection sqref="A1:Q1"/>
@@ -8975,8 +8972,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="227" t="s">
+    <row r="60">
+      <c r="A60" s="227" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9068,11 +9065,6 @@
     <row r="78">
       <c r="A78" s="227" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="227" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_EVE.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_EVE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Economic Value of Equity (EVE) Report</t>
   </si>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: December, 2019        Evaluation Date: December 31, 2019</t>
   </si>
   <si>
-    <t>Printed on: 04/16/20 2:12:21 PM</t>
+    <t>Printed on: 06/17/20 4:47:28 AM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -144,7 +144,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Glossary:</t>
+    <t>Definitions:</t>
   </si>
   <si>
     <t xml:space="preserve">1.    CUSIP: CUSIP customized for and assigned to the appropriate security;</t>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)-201912 : -47,384.72</t>
+  </si>
+  <si>
+    <t>Enable Credit Loss in Valuation for OBS: Yes</t>
   </si>
   <si>
     <t>Sector</t>
@@ -2675,8 +2678,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36585825155227936"/>
-          <c:y val="3.2453325409796202E-2"/>
+          <c:x val="0.36585825155227941"/>
+          <c:y val="3.2453325409796209E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2778,8 +2781,8 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="92031232"/>
-        <c:axId val="92037120"/>
+        <c:axId val="87587072"/>
+        <c:axId val="87588864"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2946,7 +2949,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92031232"/>
+        <c:axId val="87587072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,14 +2987,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92037120"/>
+        <c:crossAx val="87588864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92037120"/>
+        <c:axId val="87588864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3037,7 +3040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92031232"/>
+        <c:crossAx val="87587072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3081,7 +3084,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000777" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000777" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000788" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000788" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3142,8 +3145,8 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="92048384"/>
-        <c:axId val="92074752"/>
+        <c:axId val="87596032"/>
+        <c:axId val="87618304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3194,11 +3197,11 @@
           <c:smooth val="0"/>
         </ser>
         <c:smooth val="0"/>
-        <c:axId val="92074753"/>
-        <c:axId val="92074754"/>
+        <c:axId val="87618305"/>
+        <c:axId val="87618306"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92048384"/>
+        <c:axId val="87596032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3236,14 +3239,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92074752"/>
+        <c:crossAx val="87618304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92074752"/>
+        <c:axId val="87618304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="12"/>
@@ -3309,23 +3312,23 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92048384"/>
+        <c:crossAx val="87596032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="92074753"/>
+        <c:axId val="87618305"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="92074754"/>
+        <c:crossAx val="87618306"/>
         <c:crosses val="autoZero"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92074754"/>
+        <c:axId val="87618306"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="89000"/>
@@ -3357,7 +3360,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92074753"/>
+        <c:crossAx val="87618305"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3436,7 +3439,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000799" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000799" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.7500000000000081" l="0.70000000000000062" r="0.70000000000000062" t="0.7500000000000081" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3585,11 +3588,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </ser>
-        <c:axId val="93168000"/>
-        <c:axId val="93169536"/>
+        <c:axId val="93254016"/>
+        <c:axId val="93255552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93168000"/>
+        <c:axId val="93254016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3627,12 +3630,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93169536"/>
+        <c:crossAx val="93255552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93169536"/>
+        <c:axId val="93255552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,7 +3675,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="6.6519673399882172E-3"/>
-              <c:y val="0.37395733983956392"/>
+              <c:y val="0.37395733983956397"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -3700,7 +3703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93168000"/>
+        <c:crossAx val="93254016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3748,7 +3751,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000799" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000799" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.7500000000000081" l="0.70000000000000062" r="0.70000000000000062" t="0.7500000000000081" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3778,6 +3781,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3955,11 +3959,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="93276800"/>
-        <c:axId val="93287168"/>
+        <c:axId val="93350528"/>
+        <c:axId val="93364992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93276800"/>
+        <c:axId val="93350528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3984,6 +3988,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4000,12 +4005,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93287168"/>
+        <c:crossAx val="93364992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93287168"/>
+        <c:axId val="93364992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4026,13 +4031,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93276800"/>
+        <c:crossAx val="93350528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4076,7 +4082,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63FBC450-9F79-4EF8-B62B-A123B7A640F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FBC450-9F79-4EF8-B62B-A123B7A640F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4112,7 +4118,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64304E9D-A8BA-4370-84B4-25B00CBFDDDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64304E9D-A8BA-4370-84B4-25B00CBFDDDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,7 +4159,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63FBC450-9F79-4EF8-B62B-A123B7A640F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FBC450-9F79-4EF8-B62B-A123B7A640F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4224,7 +4230,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{285B5163-0187-4EEC-980D-9FB4FB5791D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285B5163-0187-4EEC-980D-9FB4FB5791D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4860,19 +4866,19 @@
         <v>15</v>
       </c>
       <c r="E10" s="253">
-        <v>23443.758258214057</v>
+        <v>23443.758258211186</v>
       </c>
       <c r="F10" s="249">
-        <v>1540.6897903805802</v>
+        <v>1540.6897903820827</v>
       </c>
       <c r="G10" s="249">
-        <v>7.03412762756604</v>
+        <v>7.0341276275743034</v>
       </c>
       <c r="H10" s="249">
-        <v>20.151345340861106</v>
+        <v>20.15134534085907</v>
       </c>
       <c r="I10" s="249">
-        <v>62.181025756261555</v>
+        <v>62.1810257564418</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -4880,19 +4886,19 @@
         <v>16</v>
       </c>
       <c r="E11" s="253">
-        <v>23239.859783151413</v>
+        <v>23239.859783135737</v>
       </c>
       <c r="F11" s="249">
-        <v>1336.7913153179361</v>
+        <v>1336.7913153066329</v>
       </c>
       <c r="G11" s="249">
-        <v>6.1032147951376228</v>
+        <v>6.1032147950872355</v>
       </c>
       <c r="H11" s="249">
-        <v>20.244620610844088</v>
+        <v>20.244620610831106</v>
       </c>
       <c r="I11" s="249">
-        <v>71.508552754559744</v>
+        <v>71.5085527536454</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -4900,19 +4906,19 @@
         <v>17</v>
       </c>
       <c r="E12" s="253">
-        <v>22636.93852795097</v>
+        <v>22636.938527937189</v>
       </c>
       <c r="F12" s="249">
-        <v>733.87006011749327</v>
+        <v>733.87006010808545</v>
       </c>
       <c r="G12" s="249">
-        <v>3.3505353882048263</v>
+        <v>3.3505353881625433</v>
       </c>
       <c r="H12" s="249">
-        <v>19.942843723326824</v>
+        <v>19.942843723315058</v>
       </c>
       <c r="I12" s="249">
-        <v>41.3308640028334</v>
+        <v>41.330864002040563</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -4920,7 +4926,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="265">
-        <v>21903.068467833476</v>
+        <v>21903.068467829104</v>
       </c>
       <c r="F13" s="266">
         <v>0</v>
@@ -4929,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="266">
-        <v>19.529535083298491</v>
+        <v>19.52953508329465</v>
       </c>
       <c r="I13" s="266">
         <v>0</v>
@@ -4940,19 +4946,19 @@
         <v>19</v>
       </c>
       <c r="E14" s="253">
-        <v>21099.691031926643</v>
+        <v>21099.691031922939</v>
       </c>
       <c r="F14" s="249">
-        <v>-803.37743590683385</v>
+        <v>-803.37743590616446</v>
       </c>
       <c r="G14" s="249">
-        <v>-3.6678762023077365</v>
+        <v>-3.6678762023054126</v>
       </c>
       <c r="H14" s="249">
-        <v>19.046266338075757</v>
+        <v>19.046266338072371</v>
       </c>
       <c r="I14" s="249">
-        <v>-48.326874522273322</v>
+        <v>-48.326874522228074</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -4960,19 +4966,19 @@
         <v>20</v>
       </c>
       <c r="E15" s="253">
-        <v>20368.193557389375</v>
+        <v>20368.19355736579</v>
       </c>
       <c r="F15" s="249">
-        <v>-1534.8749104441013</v>
+        <v>-1534.8749104633134</v>
       </c>
       <c r="G15" s="249">
-        <v>-7.0075793841314784</v>
+        <v>-7.007579384220592</v>
       </c>
       <c r="H15" s="249">
-        <v>18.601946144447425</v>
+        <v>18.601946144429235</v>
       </c>
       <c r="I15" s="249">
-        <v>-92.758893885106559</v>
+        <v>-92.758893886541728</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -4980,19 +4986,19 @@
         <v>21</v>
       </c>
       <c r="E16" s="253">
-        <v>18988.452346157406</v>
+        <v>18988.452346151931</v>
       </c>
       <c r="F16" s="249">
-        <v>-2914.61612167607</v>
+        <v>-2914.6161216771725</v>
       </c>
       <c r="G16" s="249">
-        <v>-13.306884950647131</v>
+        <v>-13.306884950654821</v>
       </c>
       <c r="H16" s="249">
-        <v>17.738665708463376</v>
+        <v>17.738665708458583</v>
       </c>
       <c r="I16" s="249">
-        <v>-179.08693748351138</v>
+        <v>-179.08693748360685</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -5000,19 +5006,19 @@
         <v>22</v>
       </c>
       <c r="E17" s="253">
-        <v>16411.956351878704</v>
+        <v>16411.956351877019</v>
       </c>
       <c r="F17" s="249">
-        <v>-5491.1121159547729</v>
+        <v>-5491.1121159520844</v>
       </c>
       <c r="G17" s="249">
-        <v>-25.070058672459247</v>
+        <v>-25.070058672451978</v>
       </c>
       <c r="H17" s="249">
-        <v>15.864847025470057</v>
+        <v>15.864847025468162</v>
       </c>
       <c r="I17" s="249">
-        <v>-366.46880578284328</v>
+        <v>-366.468805782649</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -5020,19 +5026,19 @@
         <v>23</v>
       </c>
       <c r="E18" s="253">
-        <v>13484.920157567549</v>
+        <v>13484.920157566734</v>
       </c>
       <c r="F18" s="249">
-        <v>-8418.1483102659276</v>
+        <v>-8418.14831026237</v>
       </c>
       <c r="G18" s="249">
-        <v>-38.433648338490549</v>
+        <v>-38.433648338481973</v>
       </c>
       <c r="H18" s="249">
-        <v>13.546407159623719</v>
+        <v>13.546407159622577</v>
       </c>
       <c r="I18" s="249">
-        <v>-598.31279236747707</v>
+        <v>-598.31279236720752</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
@@ -5040,19 +5046,19 @@
         <v>24</v>
       </c>
       <c r="E19" s="253">
-        <v>18630.303084688418</v>
+        <v>18630.303084682178</v>
       </c>
       <c r="F19" s="249">
-        <v>-3272.7653831450589</v>
+        <v>-3272.7653831469252</v>
       </c>
       <c r="G19" s="249">
-        <v>-14.942040600162455</v>
+        <v>-14.942040600173961</v>
       </c>
       <c r="H19" s="249">
-        <v>17.511553466413783</v>
+        <v>17.511553466408309</v>
       </c>
       <c r="I19" s="249">
-        <v>-201.79816168847066</v>
+        <v>-201.79816168863431</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -5085,7 +5091,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="267">
-        <v>0.19529535083298491</v>
+        <v>0.19529535083294655</v>
       </c>
       <c r="F22" s="254" t="s">
         <v>27</v>
@@ -5097,7 +5103,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="267">
-        <v>0.17738665708463375</v>
+        <v>0.17738665708458579</v>
       </c>
       <c r="F23" s="254" t="s">
         <v>29</v>
@@ -5121,7 +5127,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="268">
-        <v>7.2819121155517195</v>
+        <v>7.2819121155334079</v>
       </c>
       <c r="F25" s="254" t="s">
         <v>34</v>
@@ -5141,52 +5147,52 @@
     </row>
     <row r="29" ht="9.95" customHeight="1">
       <c r="H29" s="249">
-        <v>116338.42734398923</v>
+        <v>116338.42734398674</v>
       </c>
     </row>
     <row r="30" ht="9.95" customHeight="1">
       <c r="H30" s="249">
-        <v>114795.2348916972</v>
+        <v>114795.23489169337</v>
       </c>
     </row>
     <row r="31" ht="9.95" customHeight="1">
       <c r="H31" s="249">
-        <v>113509.08046013973</v>
+        <v>113509.0804601376</v>
       </c>
     </row>
     <row r="32" ht="9.95" customHeight="1">
       <c r="H32" s="249">
-        <v>112153.55805661147</v>
+        <v>112153.55805661112</v>
       </c>
     </row>
     <row r="33" ht="9.95" customHeight="1">
       <c r="H33" s="249">
-        <v>110781.24529712075</v>
+        <v>110781.245297121</v>
       </c>
     </row>
     <row r="34" ht="9.95" customHeight="1">
       <c r="H34" s="249">
-        <v>109494.96036181765</v>
+        <v>109494.96036179793</v>
       </c>
     </row>
     <row r="35" ht="9.95" customHeight="1">
       <c r="H35" s="249">
-        <v>107045.55042771756</v>
+        <v>107045.55042771563</v>
       </c>
     </row>
     <row r="36" ht="9.95" customHeight="1">
       <c r="H36" s="249">
-        <v>103448.56351612024</v>
+        <v>103448.56351612197</v>
       </c>
     </row>
     <row r="37" ht="9.95" customHeight="1">
       <c r="H37" s="249">
-        <v>99546.1010337897</v>
+        <v>99546.101033792074</v>
       </c>
     </row>
     <row r="38" ht="9.95" customHeight="1">
       <c r="H38" s="249">
-        <v>106388.637195554</v>
+        <v>106388.63719555162</v>
       </c>
     </row>
     <row r="39" ht="9.95" customHeight="1">
@@ -5303,13 +5309,13 @@
     <row r="4" ht="8.1" customHeight="1"/>
     <row r="5" ht="28.5">
       <c r="A5" s="233" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5" s="236" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="236" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" s="238" t="s">
         <v>15</v>
@@ -5342,24 +5348,24 @@
         <v>24</v>
       </c>
       <c r="N5" s="238" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O5" s="238" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P5" s="236" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="236" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R5" s="236" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="269" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="270"/>
       <c r="C6" s="270"/>
@@ -5381,7 +5387,7 @@
     </row>
     <row r="7">
       <c r="A7" s="274" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" s="275">
         <v>5.170114552357802</v>
@@ -5390,34 +5396,34 @@
         <v>17.305954825462013</v>
       </c>
       <c r="D7" s="277">
-        <v>116338.42734398923</v>
+        <v>116338.42734398674</v>
       </c>
       <c r="E7" s="277">
-        <v>114795.2348916972</v>
+        <v>114795.23489169337</v>
       </c>
       <c r="F7" s="277">
-        <v>113509.08046013973</v>
+        <v>113509.0804601376</v>
       </c>
       <c r="G7" s="278">
-        <v>112153.55805661147</v>
+        <v>112153.55805661112</v>
       </c>
       <c r="H7" s="277">
-        <v>110781.24529712075</v>
+        <v>110781.245297121</v>
       </c>
       <c r="I7" s="277">
-        <v>109494.96036181765</v>
+        <v>109494.96036179793</v>
       </c>
       <c r="J7" s="277">
-        <v>107045.55042771756</v>
+        <v>107045.55042771563</v>
       </c>
       <c r="K7" s="277">
-        <v>103448.56351612024</v>
+        <v>103448.56351612197</v>
       </c>
       <c r="L7" s="277">
-        <v>99546.1010337897</v>
+        <v>99546.101033792074</v>
       </c>
       <c r="M7" s="277">
-        <v>106388.637195554</v>
+        <v>106388.63719555162</v>
       </c>
       <c r="N7" s="277">
         <v>104581</v>
@@ -5426,18 +5432,18 @@
         <v>0</v>
       </c>
       <c r="P7" s="275">
-        <v>107.24085451144229</v>
+        <v>107.24085451144197</v>
       </c>
       <c r="Q7" s="275">
-        <v>2.450699984151254</v>
+        <v>2.450699984148407</v>
       </c>
       <c r="R7" s="275">
-        <v>0.052130450739404</v>
+        <v>0.052130450757569148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="274" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" s="275">
         <v>5.170114552357802</v>
@@ -5446,34 +5452,34 @@
         <v>17.305954825462013</v>
       </c>
       <c r="D8" s="277">
-        <v>116338.42734398923</v>
+        <v>116338.42734398674</v>
       </c>
       <c r="E8" s="277">
-        <v>114795.2348916972</v>
+        <v>114795.23489169337</v>
       </c>
       <c r="F8" s="277">
-        <v>113509.08046013973</v>
+        <v>113509.0804601376</v>
       </c>
       <c r="G8" s="278">
-        <v>112153.55805661147</v>
+        <v>112153.55805661112</v>
       </c>
       <c r="H8" s="277">
-        <v>110781.24529712075</v>
+        <v>110781.245297121</v>
       </c>
       <c r="I8" s="277">
-        <v>109494.96036181765</v>
+        <v>109494.96036179793</v>
       </c>
       <c r="J8" s="277">
-        <v>107045.55042771756</v>
+        <v>107045.55042771563</v>
       </c>
       <c r="K8" s="277">
-        <v>103448.56351612024</v>
+        <v>103448.56351612197</v>
       </c>
       <c r="L8" s="277">
-        <v>99546.1010337897</v>
+        <v>99546.101033792074</v>
       </c>
       <c r="M8" s="277">
-        <v>106388.637195554</v>
+        <v>106388.63719555162</v>
       </c>
       <c r="N8" s="277">
         <v>104581</v>
@@ -5482,18 +5488,18 @@
         <v>0</v>
       </c>
       <c r="P8" s="275">
-        <v>107.24085451144229</v>
+        <v>107.24085451144197</v>
       </c>
       <c r="Q8" s="275">
-        <v>2.450699984151254</v>
+        <v>2.450699984148407</v>
       </c>
       <c r="R8" s="275">
-        <v>0.052130450739404</v>
+        <v>0.052130450757569148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="274" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="275">
         <v>0.79135050639771976</v>
@@ -5502,34 +5508,34 @@
         <v>0.92265571526351808</v>
       </c>
       <c r="D9" s="277">
-        <v>92894.669085775167</v>
+        <v>92894.669085775546</v>
       </c>
       <c r="E9" s="277">
-        <v>91555.375108545777</v>
+        <v>91555.375108557622</v>
       </c>
       <c r="F9" s="277">
-        <v>90872.141932188752</v>
+        <v>90872.141932200422</v>
       </c>
       <c r="G9" s="278">
-        <v>90250.489588777986</v>
+        <v>90250.489588782017</v>
       </c>
       <c r="H9" s="277">
-        <v>89681.5542651941</v>
+        <v>89681.554265198065</v>
       </c>
       <c r="I9" s="277">
-        <v>89126.766804428262</v>
+        <v>89126.766804432133</v>
       </c>
       <c r="J9" s="277">
-        <v>88057.098081560165</v>
+        <v>88057.0980815637</v>
       </c>
       <c r="K9" s="277">
-        <v>87036.607164241534</v>
+        <v>87036.607164244953</v>
       </c>
       <c r="L9" s="277">
-        <v>86061.180876222163</v>
+        <v>86061.180876225349</v>
       </c>
       <c r="M9" s="277">
-        <v>87758.334110865573</v>
+        <v>87758.334110869444</v>
       </c>
       <c r="N9" s="277">
         <v>92121</v>
@@ -5538,18 +5544,18 @@
         <v>0</v>
       </c>
       <c r="P9" s="275">
-        <v>97.969507049183122</v>
+        <v>97.9695070491875</v>
       </c>
       <c r="Q9" s="275">
-        <v>1.2782036289641694</v>
+        <v>1.2782036289653216</v>
       </c>
       <c r="R9" s="275">
-        <v>0.07491584567009435</v>
+        <v>0.074915845665253819</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="279" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" s="280">
         <v>37.543800160535064</v>
@@ -5558,34 +5564,34 @@
         <v>12.856947296372347</v>
       </c>
       <c r="D10" s="282">
-        <v>23443.758258214057</v>
+        <v>23443.758258211186</v>
       </c>
       <c r="E10" s="282">
-        <v>23239.859783151413</v>
+        <v>23239.859783135737</v>
       </c>
       <c r="F10" s="282">
-        <v>22636.93852795097</v>
+        <v>22636.938527937189</v>
       </c>
       <c r="G10" s="283">
-        <v>21903.068467833476</v>
+        <v>21903.068467829104</v>
       </c>
       <c r="H10" s="282">
-        <v>21099.691031926643</v>
+        <v>21099.691031922939</v>
       </c>
       <c r="I10" s="282">
-        <v>20368.193557389375</v>
+        <v>20368.19355736579</v>
       </c>
       <c r="J10" s="282">
-        <v>18988.452346157406</v>
+        <v>18988.452346151931</v>
       </c>
       <c r="K10" s="282">
-        <v>16411.956351878704</v>
+        <v>16411.956351877019</v>
       </c>
       <c r="L10" s="282">
-        <v>13484.920157567549</v>
+        <v>13484.920157566734</v>
       </c>
       <c r="M10" s="282">
-        <v>18630.303084688418</v>
+        <v>18630.303084682178</v>
       </c>
       <c r="N10" s="282">
         <v>12460</v>
@@ -5594,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="P10" s="280">
-        <v>175.78706635500382</v>
+        <v>175.78706635496872</v>
       </c>
       <c r="Q10" s="280">
-        <v>7.2819121155517195</v>
+        <v>7.2819121155334079</v>
       </c>
       <c r="R10" s="280">
-        <v>-0.04175562056555733</v>
+        <v>-0.041755620455943311</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="269" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" s="270"/>
       <c r="C12" s="270"/>
@@ -5627,7 +5633,7 @@
     </row>
     <row r="13" outlineLevel="2">
       <c r="A13" s="284" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" s="242">
         <v>0</v>
@@ -5683,7 +5689,7 @@
     </row>
     <row r="14" outlineLevel="2">
       <c r="A14" s="284" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" s="242">
         <v>1.55</v>
@@ -5739,7 +5745,7 @@
     </row>
     <row r="15" outlineLevel="1">
       <c r="A15" s="285" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" s="286">
         <v>0.51602852009880984</v>
@@ -5795,7 +5801,7 @@
     </row>
     <row r="16" outlineLevel="2">
       <c r="A16" s="289" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" s="242">
         <v>3.3044058745</v>
@@ -5807,31 +5813,31 @@
         <v>3540.45892857143</v>
       </c>
       <c r="E16" s="241">
-        <v>3399.45154156831</v>
+        <v>3399.45154156885</v>
       </c>
       <c r="F16" s="241">
-        <v>3315.5788212591297</v>
+        <v>3315.5788212596403</v>
       </c>
       <c r="G16" s="273">
-        <v>3234.73308532013</v>
+        <v>3234.73308532061</v>
       </c>
       <c r="H16" s="241">
-        <v>3156.77782218366</v>
+        <v>3156.77782218412</v>
       </c>
       <c r="I16" s="241">
-        <v>3081.5835068487</v>
+        <v>3081.58350684914</v>
       </c>
       <c r="J16" s="241">
-        <v>2938.99225459337</v>
+        <v>2938.99225459377</v>
       </c>
       <c r="K16" s="241">
-        <v>2806.04871878206</v>
+        <v>2806.0487187824197</v>
       </c>
       <c r="L16" s="241">
-        <v>2681.93155991292</v>
+        <v>2681.93155991325</v>
       </c>
       <c r="M16" s="241">
-        <v>2977.57586028873</v>
+        <v>2977.57586028916</v>
       </c>
       <c r="N16" s="241">
         <v>2996</v>
@@ -5840,18 +5846,18 @@
         <v>0</v>
       </c>
       <c r="P16" s="242">
-        <v>107.9683940360524</v>
+        <v>107.96839403606842</v>
       </c>
       <c r="Q16" s="242">
-        <v>4.9079307097355436</v>
+        <v>4.9079307097362914</v>
       </c>
       <c r="R16" s="242">
-        <v>0.35736044437268305</v>
+        <v>0.35736044440496406</v>
       </c>
     </row>
     <row r="17" outlineLevel="2">
       <c r="A17" s="290" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B17" s="286">
         <v>3.3044058745</v>
@@ -5863,31 +5869,31 @@
         <v>3540.45892857143</v>
       </c>
       <c r="E17" s="287">
-        <v>3399.45154156831</v>
+        <v>3399.45154156885</v>
       </c>
       <c r="F17" s="287">
-        <v>3315.5788212591297</v>
+        <v>3315.5788212596403</v>
       </c>
       <c r="G17" s="288">
-        <v>3234.73308532013</v>
+        <v>3234.73308532061</v>
       </c>
       <c r="H17" s="287">
-        <v>3156.77782218366</v>
+        <v>3156.77782218412</v>
       </c>
       <c r="I17" s="287">
-        <v>3081.5835068487</v>
+        <v>3081.58350684914</v>
       </c>
       <c r="J17" s="287">
-        <v>2938.99225459337</v>
+        <v>2938.99225459377</v>
       </c>
       <c r="K17" s="287">
-        <v>2806.04871878206</v>
+        <v>2806.0487187824197</v>
       </c>
       <c r="L17" s="287">
-        <v>2681.93155991292</v>
+        <v>2681.93155991325</v>
       </c>
       <c r="M17" s="287">
-        <v>2977.57586028873</v>
+        <v>2977.57586028916</v>
       </c>
       <c r="N17" s="287">
         <v>2996</v>
@@ -5896,18 +5902,18 @@
         <v>0</v>
       </c>
       <c r="P17" s="286">
-        <v>107.9683940360524</v>
+        <v>107.96839403606842</v>
       </c>
       <c r="Q17" s="286">
-        <v>4.9079307097355436</v>
+        <v>4.9079307097362914</v>
       </c>
       <c r="R17" s="286">
-        <v>0.35736044437268305</v>
+        <v>0.35736044440496406</v>
       </c>
     </row>
     <row r="18" outlineLevel="2">
       <c r="A18" s="284" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B18" s="242">
         <v>2.6785714286</v>
@@ -5919,31 +5925,31 @@
         <v>1156.4887987013</v>
       </c>
       <c r="E18" s="241">
-        <v>1109.9840987779</v>
+        <v>1109.98409877808</v>
       </c>
       <c r="F18" s="241">
-        <v>1082.3584067501902</v>
+        <v>1082.35840675036</v>
       </c>
       <c r="G18" s="273">
-        <v>1055.73318024361</v>
+        <v>1055.73318024377</v>
       </c>
       <c r="H18" s="241">
-        <v>1030.06318058195</v>
+        <v>1030.0631805821</v>
       </c>
       <c r="I18" s="241">
-        <v>1005.30548922105</v>
+        <v>1005.30548922119</v>
       </c>
       <c r="J18" s="241">
-        <v>958.366193588399</v>
+        <v>958.366193588531</v>
       </c>
       <c r="K18" s="241">
-        <v>914.613644215476</v>
+        <v>914.613644215595</v>
       </c>
       <c r="L18" s="241">
-        <v>873.775826053613</v>
+        <v>873.77582605372106</v>
       </c>
       <c r="M18" s="241">
-        <v>971.333918329268</v>
+        <v>971.333918329414</v>
       </c>
       <c r="N18" s="241">
         <v>1008</v>
@@ -5952,18 +5958,18 @@
         <v>0</v>
       </c>
       <c r="P18" s="242">
-        <v>104.73543454797718</v>
+        <v>104.73543454799305</v>
       </c>
       <c r="Q18" s="242">
-        <v>4.9521157797927104</v>
+        <v>4.9521157797918525</v>
       </c>
       <c r="R18" s="242">
-        <v>0.36184950406974559</v>
+        <v>0.361849504067537</v>
       </c>
     </row>
     <row r="19" outlineLevel="2">
       <c r="A19" s="291" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" s="242">
         <v>2.66782748034572</v>
@@ -5972,34 +5978,34 @@
         <v>25.07049965776865</v>
       </c>
       <c r="D19" s="241">
-        <v>1725.1109411119369</v>
+        <v>1725.1109411117361</v>
       </c>
       <c r="E19" s="241">
-        <v>1674.0097213604204</v>
+        <v>1674.0097213598124</v>
       </c>
       <c r="F19" s="241">
-        <v>1626.5810933930588</v>
+        <v>1626.5810933929276</v>
       </c>
       <c r="G19" s="273">
-        <v>1574.2242352335984</v>
+        <v>1574.2242352335809</v>
       </c>
       <c r="H19" s="241">
-        <v>1520.1310304090091</v>
+        <v>1520.1310304090343</v>
       </c>
       <c r="I19" s="241">
-        <v>1466.284529894878</v>
+        <v>1466.2845298949339</v>
       </c>
       <c r="J19" s="241">
-        <v>1362.2974860460802</v>
+        <v>1362.2974860461677</v>
       </c>
       <c r="K19" s="241">
-        <v>1265.5287331888155</v>
+        <v>1265.528733188894</v>
       </c>
       <c r="L19" s="241">
-        <v>1176.7484811883016</v>
+        <v>1176.7484811883708</v>
       </c>
       <c r="M19" s="241">
-        <v>1425.3991509878003</v>
+        <v>1425.3991509878258</v>
       </c>
       <c r="N19" s="241">
         <v>1542</v>
@@ -6008,18 +6014,18 @@
         <v>0</v>
       </c>
       <c r="P19" s="242">
-        <v>102.08976882189354</v>
+        <v>102.08976882189241</v>
       </c>
       <c r="Q19" s="242">
-        <v>6.8145044690048042</v>
+        <v>6.814504468995275</v>
       </c>
       <c r="R19" s="242">
-        <v>-0.39915335480040237</v>
+        <v>-0.399153354862514</v>
       </c>
     </row>
     <row r="20" outlineLevel="2">
       <c r="A20" s="292" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" s="286">
         <v>2.66782748034572</v>
@@ -6028,34 +6034,34 @@
         <v>25.07049965776865</v>
       </c>
       <c r="D20" s="287">
-        <v>1725.1109411119369</v>
+        <v>1725.1109411117361</v>
       </c>
       <c r="E20" s="287">
-        <v>1674.0097213604204</v>
+        <v>1674.0097213598124</v>
       </c>
       <c r="F20" s="287">
-        <v>1626.5810933930588</v>
+        <v>1626.5810933929276</v>
       </c>
       <c r="G20" s="288">
-        <v>1574.2242352335984</v>
+        <v>1574.2242352335809</v>
       </c>
       <c r="H20" s="287">
-        <v>1520.1310304090091</v>
+        <v>1520.1310304090343</v>
       </c>
       <c r="I20" s="287">
-        <v>1466.284529894878</v>
+        <v>1466.2845298949339</v>
       </c>
       <c r="J20" s="287">
-        <v>1362.2974860460802</v>
+        <v>1362.2974860461677</v>
       </c>
       <c r="K20" s="287">
-        <v>1265.5287331888155</v>
+        <v>1265.528733188894</v>
       </c>
       <c r="L20" s="287">
-        <v>1176.7484811883016</v>
+        <v>1176.7484811883708</v>
       </c>
       <c r="M20" s="287">
-        <v>1425.3991509878003</v>
+        <v>1425.3991509878258</v>
       </c>
       <c r="N20" s="287">
         <v>1542</v>
@@ -6064,18 +6070,18 @@
         <v>0</v>
       </c>
       <c r="P20" s="286">
-        <v>102.08976882189354</v>
+        <v>102.08976882189241</v>
       </c>
       <c r="Q20" s="286">
-        <v>6.8145044690048042</v>
+        <v>6.814504468995275</v>
       </c>
       <c r="R20" s="286">
-        <v>-0.39915335480040237</v>
+        <v>-0.399153354862514</v>
       </c>
     </row>
     <row r="21" outlineLevel="2">
       <c r="A21" s="291" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B21" s="242">
         <v>2.2279546278</v>
@@ -6087,31 +6093,31 @@
         <v>337.550395927694</v>
       </c>
       <c r="E21" s="241">
-        <v>324.164457378107</v>
+        <v>324.164457378158</v>
       </c>
       <c r="F21" s="241">
-        <v>316.174692028543</v>
+        <v>316.174692028591</v>
       </c>
       <c r="G21" s="273">
-        <v>308.470953202964</v>
+        <v>308.47095320301</v>
       </c>
       <c r="H21" s="241">
-        <v>301.040407538448</v>
+        <v>301.040407538492</v>
       </c>
       <c r="I21" s="241">
-        <v>293.87087657303397</v>
+        <v>293.87087657307603</v>
       </c>
       <c r="J21" s="241">
-        <v>280.26920443446005</v>
+        <v>280.26920443449796</v>
       </c>
       <c r="K21" s="241">
-        <v>267.58028413696803</v>
+        <v>267.580284137002</v>
       </c>
       <c r="L21" s="241">
-        <v>255.726834858236</v>
+        <v>255.72683485826698</v>
       </c>
       <c r="M21" s="241">
-        <v>283.824232324965</v>
+        <v>283.82423232500696</v>
       </c>
       <c r="N21" s="241">
         <v>308</v>
@@ -6120,18 +6126,18 @@
         <v>0</v>
       </c>
       <c r="P21" s="242">
-        <v>100.15290688407922</v>
+        <v>100.15290688409417</v>
       </c>
       <c r="Q21" s="242">
-        <v>4.9049302058417</v>
+        <v>4.9049302058409676</v>
       </c>
       <c r="R21" s="242">
-        <v>0.35418672638726406</v>
+        <v>0.35418672638352572</v>
       </c>
     </row>
     <row r="22" outlineLevel="2">
       <c r="A22" s="292" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" s="286">
         <v>2.2279546278</v>
@@ -6143,31 +6149,31 @@
         <v>337.550395927694</v>
       </c>
       <c r="E22" s="287">
-        <v>324.164457378107</v>
+        <v>324.164457378158</v>
       </c>
       <c r="F22" s="287">
-        <v>316.174692028543</v>
+        <v>316.174692028591</v>
       </c>
       <c r="G22" s="288">
-        <v>308.470953202964</v>
+        <v>308.47095320301</v>
       </c>
       <c r="H22" s="287">
-        <v>301.040407538448</v>
+        <v>301.040407538492</v>
       </c>
       <c r="I22" s="287">
-        <v>293.87087657303397</v>
+        <v>293.87087657307603</v>
       </c>
       <c r="J22" s="287">
-        <v>280.26920443446005</v>
+        <v>280.26920443449796</v>
       </c>
       <c r="K22" s="287">
-        <v>267.58028413696803</v>
+        <v>267.580284137002</v>
       </c>
       <c r="L22" s="287">
-        <v>255.726834858236</v>
+        <v>255.72683485826698</v>
       </c>
       <c r="M22" s="287">
-        <v>283.824232324965</v>
+        <v>283.82423232500696</v>
       </c>
       <c r="N22" s="287">
         <v>308</v>
@@ -6176,18 +6182,18 @@
         <v>0</v>
       </c>
       <c r="P22" s="286">
-        <v>100.15290688407922</v>
+        <v>100.15290688409417</v>
       </c>
       <c r="Q22" s="286">
-        <v>4.9049302058417</v>
+        <v>4.9049302058409676</v>
       </c>
       <c r="R22" s="286">
-        <v>0.35418672638726406</v>
+        <v>0.35418672638352572</v>
       </c>
     </row>
     <row r="23" outlineLevel="2">
       <c r="A23" s="290" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" s="286">
         <v>2.5945945946245947</v>
@@ -6196,34 +6202,34 @@
         <v>21.812457221081456</v>
       </c>
       <c r="D23" s="287">
-        <v>2062.6613370396308</v>
+        <v>2062.66133703943</v>
       </c>
       <c r="E23" s="287">
-        <v>1998.1741787385274</v>
+        <v>1998.1741787379706</v>
       </c>
       <c r="F23" s="287">
-        <v>1942.7557854216018</v>
+        <v>1942.7557854215186</v>
       </c>
       <c r="G23" s="288">
-        <v>1882.6951884365624</v>
+        <v>1882.695188436591</v>
       </c>
       <c r="H23" s="287">
-        <v>1821.1714379474572</v>
+        <v>1821.1714379475263</v>
       </c>
       <c r="I23" s="287">
-        <v>1760.1554064679117</v>
+        <v>1760.1554064680101</v>
       </c>
       <c r="J23" s="287">
-        <v>1642.5666904805403</v>
+        <v>1642.5666904806658</v>
       </c>
       <c r="K23" s="287">
-        <v>1533.1090173257833</v>
+        <v>1533.1090173258958</v>
       </c>
       <c r="L23" s="287">
-        <v>1432.4753160465375</v>
+        <v>1432.475316046638</v>
       </c>
       <c r="M23" s="287">
-        <v>1709.2233833127655</v>
+        <v>1709.2233833128328</v>
       </c>
       <c r="N23" s="287">
         <v>1850</v>
@@ -6232,18 +6238,18 @@
         <v>0</v>
       </c>
       <c r="P23" s="286">
-        <v>101.76730748305742</v>
+        <v>101.76730748305897</v>
       </c>
       <c r="Q23" s="286">
-        <v>6.50162950295196</v>
+        <v>6.5016295029439517</v>
       </c>
       <c r="R23" s="286">
-        <v>-0.27572204507100589</v>
+        <v>-0.27572204512534831</v>
       </c>
     </row>
     <row r="24" outlineLevel="1">
       <c r="A24" s="285" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" s="286">
         <v>2.9723266142955755</v>
@@ -6252,34 +6258,34 @@
         <v>10.45037645448323</v>
       </c>
       <c r="D24" s="287">
-        <v>6759.6090643123616</v>
+        <v>6759.60906431216</v>
       </c>
       <c r="E24" s="287">
-        <v>6507.6098190847388</v>
+        <v>6507.6098190849007</v>
       </c>
       <c r="F24" s="287">
-        <v>6340.6930134309214</v>
+        <v>6340.6930134315189</v>
       </c>
       <c r="G24" s="288">
-        <v>6173.161454000302</v>
+        <v>6173.1614540009714</v>
       </c>
       <c r="H24" s="287">
-        <v>6008.012440713067</v>
+        <v>6008.0124407137455</v>
       </c>
       <c r="I24" s="287">
-        <v>5847.0444025376619</v>
+        <v>5847.04440253834</v>
       </c>
       <c r="J24" s="287">
-        <v>5539.9251386623082</v>
+        <v>5539.9251386629667</v>
       </c>
       <c r="K24" s="287">
-        <v>5253.77138032332</v>
+        <v>5253.7713803239112</v>
       </c>
       <c r="L24" s="287">
-        <v>4988.18270201307</v>
+        <v>4988.1827020136088</v>
       </c>
       <c r="M24" s="287">
-        <v>5658.1331619307621</v>
+        <v>5658.1331619314069</v>
       </c>
       <c r="N24" s="287">
         <v>5854</v>
@@ -6288,18 +6294,18 @@
         <v>0</v>
       </c>
       <c r="P24" s="286">
-        <v>105.45202347113602</v>
+        <v>105.45202347114744</v>
       </c>
       <c r="Q24" s="286">
-        <v>5.4015346300350107</v>
+        <v>5.4015346300328035</v>
       </c>
       <c r="R24" s="286">
-        <v>0.16505021300685302</v>
+        <v>0.1650502130038885</v>
       </c>
     </row>
     <row r="25" outlineLevel="2">
       <c r="A25" s="291" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B25" s="242">
         <v>7.6808180531</v>
@@ -6329,7 +6335,7 @@
         <v>1372.0492152617846</v>
       </c>
       <c r="K25" s="241">
-        <v>1337.1274256239938</v>
+        <v>1337.1274256239838</v>
       </c>
       <c r="L25" s="241">
         <v>1303.3292051400451</v>
@@ -6355,7 +6361,7 @@
     </row>
     <row r="26" outlineLevel="2">
       <c r="A26" s="291" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B26" s="242">
         <v>7.6808180531</v>
@@ -6391,7 +6397,7 @@
         <v>2162.0410311651763</v>
       </c>
       <c r="M26" s="241">
-        <v>2241.992721507946</v>
+        <v>2241.992721507936</v>
       </c>
       <c r="N26" s="241">
         <v>2125</v>
@@ -6403,15 +6409,15 @@
         <v>112.83687893285149</v>
       </c>
       <c r="Q26" s="242">
-        <v>2.6057540405397264</v>
+        <v>2.6057540405419073</v>
       </c>
       <c r="R26" s="242">
-        <v>0.086764853170718484</v>
+        <v>0.086764853127098251</v>
       </c>
     </row>
     <row r="27" outlineLevel="2">
       <c r="A27" s="292" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B27" s="286">
         <v>7.6808180531</v>
@@ -6441,13 +6447,13 @@
         <v>3648.0871406570118</v>
       </c>
       <c r="K27" s="287">
-        <v>3555.234981791813</v>
+        <v>3555.234981791803</v>
       </c>
       <c r="L27" s="287">
         <v>3465.3702363052212</v>
       </c>
       <c r="M27" s="287">
-        <v>3593.5186868028513</v>
+        <v>3593.5186868028418</v>
       </c>
       <c r="N27" s="287">
         <v>3406</v>
@@ -6459,15 +6465,15 @@
         <v>112.83687893285146</v>
       </c>
       <c r="Q27" s="286">
-        <v>2.6057540405392303</v>
+        <v>2.605754040540591</v>
       </c>
       <c r="R27" s="286">
-        <v>0.0867648531642204</v>
+        <v>0.086764853137005785</v>
       </c>
     </row>
     <row r="28" outlineLevel="2">
       <c r="A28" s="289" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B28" s="242">
         <v>5.0003163474</v>
@@ -6479,7 +6485,7 @@
         <v>5027.8230204217507</v>
       </c>
       <c r="E28" s="241">
-        <v>4983.1552014433</v>
+        <v>4983.1552014432891</v>
       </c>
       <c r="F28" s="241">
         <v>4946.0363376679225</v>
@@ -6503,7 +6509,7 @@
         <v>4631.6942190767058</v>
       </c>
       <c r="M28" s="241">
-        <v>4714.11995344426</v>
+        <v>4714.11995344425</v>
       </c>
       <c r="N28" s="241">
         <v>4751</v>
@@ -6515,15 +6521,15 @@
         <v>103.33349684357957</v>
       </c>
       <c r="Q28" s="242">
-        <v>1.4805648963558757</v>
+        <v>1.4805648963549496</v>
       </c>
       <c r="R28" s="242">
-        <v>0.036568996614469</v>
+        <v>0.036568996595943329</v>
       </c>
     </row>
     <row r="29" outlineLevel="2">
       <c r="A29" s="291" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B29" s="242">
         <v>6.6193475177</v>
@@ -6532,34 +6538,34 @@
         <v>10.001368925393566</v>
       </c>
       <c r="D29" s="241">
-        <v>2463.7048066182911</v>
+        <v>2463.70480661816</v>
       </c>
       <c r="E29" s="241">
-        <v>2449.4423503377325</v>
+        <v>2449.442350337581</v>
       </c>
       <c r="F29" s="241">
-        <v>2438.5477009167926</v>
+        <v>2438.5477009166416</v>
       </c>
       <c r="G29" s="273">
-        <v>2427.7358038469861</v>
+        <v>2427.7358038468351</v>
       </c>
       <c r="H29" s="241">
-        <v>2417.0059254205671</v>
+        <v>2417.0059254204261</v>
       </c>
       <c r="I29" s="241">
-        <v>2406.3573377290663</v>
+        <v>2406.3573377289154</v>
       </c>
       <c r="J29" s="241">
-        <v>2385.3011513480228</v>
+        <v>2385.3011513478823</v>
       </c>
       <c r="K29" s="241">
-        <v>2364.5615339622605</v>
+        <v>2364.5615339621204</v>
       </c>
       <c r="L29" s="241">
-        <v>2344.1328621773173</v>
+        <v>2344.1328621771768</v>
       </c>
       <c r="M29" s="241">
-        <v>2371.5916344809657</v>
+        <v>2371.5916344808252</v>
       </c>
       <c r="N29" s="241">
         <v>2246</v>
@@ -6568,18 +6574,18 @@
         <v>0</v>
       </c>
       <c r="P29" s="242">
-        <v>108.09153178303589</v>
+        <v>108.09153178302917</v>
       </c>
       <c r="Q29" s="242">
-        <v>0.87024110846293323</v>
+        <v>0.870241108463081</v>
       </c>
       <c r="R29" s="242">
-        <v>0.013243077213703276</v>
+        <v>0.013243077215577234</v>
       </c>
     </row>
     <row r="30" outlineLevel="2">
       <c r="A30" s="293" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B30" s="242">
         <v>5.7629889347</v>
@@ -6588,34 +6594,34 @@
         <v>30.001368925393567</v>
       </c>
       <c r="D30" s="241">
-        <v>58494.713222451137</v>
+        <v>58494.713222449027</v>
       </c>
       <c r="E30" s="241">
-        <v>57697.710493565966</v>
+        <v>57697.71049356219</v>
       </c>
       <c r="F30" s="241">
-        <v>56969.335395473579</v>
+        <v>56969.335395471069</v>
       </c>
       <c r="G30" s="273">
-        <v>56165.930306477785</v>
+        <v>56165.930306476956</v>
       </c>
       <c r="H30" s="241">
-        <v>55337.202370782026</v>
+        <v>55337.2023707818</v>
       </c>
       <c r="I30" s="241">
-        <v>54584.295173146907</v>
+        <v>54584.295173126695</v>
       </c>
       <c r="J30" s="241">
-        <v>53169.226407677452</v>
+        <v>53169.226407675051</v>
       </c>
       <c r="K30" s="241">
-        <v>50562.925310483057</v>
+        <v>50562.9253104844</v>
       </c>
       <c r="L30" s="241">
-        <v>47608.784433795649</v>
+        <v>47608.784433797649</v>
       </c>
       <c r="M30" s="241">
-        <v>52815.696371916572</v>
+        <v>52815.696371913742</v>
       </c>
       <c r="N30" s="241">
         <v>51299</v>
@@ -6624,18 +6630,18 @@
         <v>0</v>
       </c>
       <c r="P30" s="242">
-        <v>109.48737851903114</v>
+        <v>109.48737851902952</v>
       </c>
       <c r="Q30" s="242">
-        <v>2.9512028037428051</v>
+        <v>2.9512028037375373</v>
       </c>
       <c r="R30" s="242">
-        <v>0.042400442814817849</v>
+        <v>0.042400442848499913</v>
       </c>
     </row>
     <row r="31" outlineLevel="2">
       <c r="A31" s="293" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B31" s="242">
         <v>6.6193475177</v>
@@ -6644,34 +6650,34 @@
         <v>10.001368925393566</v>
       </c>
       <c r="D31" s="241">
-        <v>678.99967733602784</v>
+        <v>678.99967733599249</v>
       </c>
       <c r="E31" s="241">
-        <v>675.06892914472439</v>
+        <v>675.06892914468517</v>
       </c>
       <c r="F31" s="241">
-        <v>672.06635212266</v>
+        <v>672.06635212261858</v>
       </c>
       <c r="G31" s="273">
-        <v>669.0865817369903</v>
+        <v>669.086581736949</v>
       </c>
       <c r="H31" s="241">
-        <v>666.1294157770833</v>
+        <v>666.129415777045</v>
       </c>
       <c r="I31" s="241">
-        <v>663.19465363058214</v>
+        <v>663.1946536305428</v>
       </c>
       <c r="J31" s="241">
-        <v>657.39154616403471</v>
+        <v>657.39154616399685</v>
       </c>
       <c r="K31" s="241">
-        <v>651.67568545086181</v>
+        <v>651.67568545082383</v>
       </c>
       <c r="L31" s="241">
-        <v>646.04552167754139</v>
+        <v>646.04552167750342</v>
       </c>
       <c r="M31" s="241">
-        <v>653.61318866594547</v>
+        <v>653.61318866590727</v>
       </c>
       <c r="N31" s="241">
         <v>618.999999999999</v>
@@ -6680,18 +6686,18 @@
         <v>0</v>
       </c>
       <c r="P31" s="242">
-        <v>108.09153178303576</v>
+        <v>108.0915317830291</v>
       </c>
       <c r="Q31" s="242">
-        <v>0.87024110846299019</v>
+        <v>0.87024110846151459</v>
       </c>
       <c r="R31" s="242">
-        <v>0.013243077221292681</v>
+        <v>0.013243077251877927</v>
       </c>
     </row>
     <row r="32" outlineLevel="2">
       <c r="A32" s="294" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B32" s="286">
         <v>5.7731989960058474</v>
@@ -6700,34 +6706,34 @@
         <v>29.765913757700204</v>
       </c>
       <c r="D32" s="287">
-        <v>59173.712899787155</v>
+        <v>59173.712899785009</v>
       </c>
       <c r="E32" s="287">
-        <v>58372.779422710686</v>
+        <v>58372.779422706881</v>
       </c>
       <c r="F32" s="287">
-        <v>57641.401747596232</v>
+        <v>57641.401747593678</v>
       </c>
       <c r="G32" s="288">
-        <v>56835.016888214777</v>
+        <v>56835.016888213911</v>
       </c>
       <c r="H32" s="287">
-        <v>56003.331786559109</v>
+        <v>56003.331786558847</v>
       </c>
       <c r="I32" s="287">
-        <v>55247.489826777492</v>
+        <v>55247.489826757243</v>
       </c>
       <c r="J32" s="287">
-        <v>53826.617953841487</v>
+        <v>53826.61795383905</v>
       </c>
       <c r="K32" s="287">
-        <v>51214.600995933914</v>
+        <v>51214.60099593523</v>
       </c>
       <c r="L32" s="287">
-        <v>48254.829955473186</v>
+        <v>48254.82995547515</v>
       </c>
       <c r="M32" s="287">
-        <v>53469.309560582522</v>
+        <v>53469.309560579641</v>
       </c>
       <c r="N32" s="287">
         <v>51918</v>
@@ -6736,18 +6742,18 @@
         <v>0</v>
       </c>
       <c r="P32" s="286">
-        <v>109.47073633078081</v>
+        <v>109.47073633077913</v>
       </c>
       <c r="Q32" s="286">
-        <v>2.9267048159942242</v>
+        <v>2.926704815988892</v>
       </c>
       <c r="R32" s="286">
-        <v>0.042057189603791872</v>
+        <v>0.042057189634517059</v>
       </c>
     </row>
     <row r="33" outlineLevel="2">
       <c r="A33" s="292" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B33" s="286">
         <v>5.8082859463737142</v>
@@ -6756,34 +6762,34 @@
         <v>28.960985626283371</v>
       </c>
       <c r="D33" s="287">
-        <v>61637.417706405453</v>
+        <v>61637.417706403183</v>
       </c>
       <c r="E33" s="287">
-        <v>60822.221773048426</v>
+        <v>60822.221773044468</v>
       </c>
       <c r="F33" s="287">
-        <v>60079.949448513034</v>
+        <v>60079.949448510321</v>
       </c>
       <c r="G33" s="288">
-        <v>59262.75269206176</v>
+        <v>59262.752692060749</v>
       </c>
       <c r="H33" s="287">
-        <v>58420.337711979679</v>
+        <v>58420.337711979271</v>
       </c>
       <c r="I33" s="287">
-        <v>57653.847164506551</v>
+        <v>57653.847164486157</v>
       </c>
       <c r="J33" s="287">
-        <v>56211.91910518951</v>
+        <v>56211.919105186935</v>
       </c>
       <c r="K33" s="287">
-        <v>53579.162529896181</v>
+        <v>53579.162529897352</v>
       </c>
       <c r="L33" s="287">
-        <v>50598.962817650507</v>
+        <v>50598.962817652333</v>
       </c>
       <c r="M33" s="287">
-        <v>55840.901195063481</v>
+        <v>55840.901195060469</v>
       </c>
       <c r="N33" s="287">
         <v>54164</v>
@@ -6792,18 +6798,18 @@
         <v>0</v>
       </c>
       <c r="P33" s="286">
-        <v>109.41354532911484</v>
+        <v>109.41354532911296</v>
       </c>
       <c r="Q33" s="286">
-        <v>2.8424604914346117</v>
+        <v>2.8424604914295037</v>
       </c>
       <c r="R33" s="286">
-        <v>0.040876801432154275</v>
+        <v>0.040876801461620864</v>
       </c>
     </row>
     <row r="34" outlineLevel="2">
       <c r="A34" s="291" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B34" s="242">
         <v>5.0003163474</v>
@@ -6815,7 +6821,7 @@
         <v>7622.6918998311621</v>
       </c>
       <c r="E34" s="241">
-        <v>7554.9709358021591</v>
+        <v>7554.9709358021682</v>
       </c>
       <c r="F34" s="241">
         <v>7498.694956897938</v>
@@ -6839,7 +6845,7 @@
         <v>7022.1202820478911</v>
       </c>
       <c r="M34" s="241">
-        <v>7147.0860923298169</v>
+        <v>7147.086092329826</v>
       </c>
       <c r="N34" s="241">
         <v>7203</v>
@@ -6859,7 +6865,7 @@
     </row>
     <row r="35" outlineLevel="2">
       <c r="A35" s="291" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B35" s="242">
         <v>5.0003163474</v>
@@ -6915,7 +6921,7 @@
     </row>
     <row r="36" outlineLevel="2">
       <c r="A36" s="292" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B36" s="286">
         <v>5.0003163474</v>
@@ -6927,7 +6933,7 @@
         <v>8800.5422517001189</v>
       </c>
       <c r="E36" s="287">
-        <v>8722.35711538675</v>
+        <v>8722.35711538676</v>
       </c>
       <c r="F36" s="287">
         <v>8657.38543128741</v>
@@ -6951,7 +6957,7 @@
         <v>8107.17093787453</v>
       </c>
       <c r="M36" s="287">
-        <v>8251.4463340017719</v>
+        <v>8251.446334001781</v>
       </c>
       <c r="N36" s="287">
         <v>8316</v>
@@ -6971,7 +6977,7 @@
     </row>
     <row r="37" outlineLevel="2">
       <c r="A37" s="290" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B37" s="286">
         <v>5.7491116553607915</v>
@@ -6980,34 +6986,34 @@
         <v>23.071868583162217</v>
       </c>
       <c r="D37" s="287">
-        <v>79476.549481684444</v>
+        <v>79476.549481682159</v>
       </c>
       <c r="E37" s="287">
-        <v>78473.4913384393</v>
+        <v>78473.491338435342</v>
       </c>
       <c r="F37" s="287">
-        <v>77577.43473096838</v>
+        <v>77577.434730965673</v>
       </c>
       <c r="G37" s="288">
-        <v>76608.564821065214</v>
+        <v>76608.56482106421</v>
       </c>
       <c r="H37" s="287">
-        <v>75616.551645457934</v>
+        <v>75616.551645457526</v>
       </c>
       <c r="I37" s="287">
-        <v>74702.502415035779</v>
+        <v>74702.5024150154</v>
       </c>
       <c r="J37" s="287">
-        <v>72971.4372782425</v>
+        <v>72971.437278239915</v>
       </c>
       <c r="K37" s="287">
-        <v>70057.2937689552</v>
+        <v>70057.293768956355</v>
       </c>
       <c r="L37" s="287">
-        <v>66803.198210906965</v>
+        <v>66803.1982109088</v>
       </c>
       <c r="M37" s="287">
-        <v>72399.986169312353</v>
+        <v>72399.986169309326</v>
       </c>
       <c r="N37" s="287">
         <v>70637</v>
@@ -7016,18 +7022,18 @@
         <v>0</v>
       </c>
       <c r="P37" s="286">
-        <v>108.45387661008425</v>
+        <v>108.45387661008283</v>
       </c>
       <c r="Q37" s="286">
-        <v>2.5905456938575164</v>
+        <v>2.5905456938535614</v>
       </c>
       <c r="R37" s="286">
-        <v>0.042419599585764071</v>
+        <v>0.042419599604759779</v>
       </c>
     </row>
     <row r="38" outlineLevel="2">
       <c r="A38" s="284" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B38" s="242">
         <v>5.7602513035</v>
@@ -7048,7 +7054,7 @@
         <v>2289.7140321141742</v>
       </c>
       <c r="H38" s="241">
-        <v>2272.8236088345493</v>
+        <v>2272.8236088345393</v>
       </c>
       <c r="I38" s="241">
         <v>2256.1396850865244</v>
@@ -7083,7 +7089,7 @@
     </row>
     <row r="39" outlineLevel="2">
       <c r="A39" s="284" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B39" s="242">
         <v>5.75</v>
@@ -7092,7 +7098,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="241">
-        <v>7001.8019563971475</v>
+        <v>7001.8019563971375</v>
       </c>
       <c r="E39" s="241">
         <v>6844.2018934014513</v>
@@ -7101,19 +7107,19 @@
         <v>6726.0279797662752</v>
       </c>
       <c r="G39" s="273">
-        <v>6610.3496136915583</v>
+        <v>6610.3496136915483</v>
       </c>
       <c r="H39" s="241">
         <v>6497.1072009880008</v>
       </c>
       <c r="I39" s="241">
-        <v>6386.2427218745634</v>
+        <v>6386.2427218745534</v>
       </c>
       <c r="J39" s="241">
-        <v>6171.4230860409</v>
+        <v>6171.4230860408907</v>
       </c>
       <c r="K39" s="241">
-        <v>5965.4563440650227</v>
+        <v>5965.4563440650136</v>
       </c>
       <c r="L39" s="241">
         <v>5767.9305590839949</v>
@@ -7128,18 +7134,18 @@
         <v>0</v>
       </c>
       <c r="P39" s="242">
-        <v>110.17249356152597</v>
+        <v>110.1724935615258</v>
       </c>
       <c r="Q39" s="242">
-        <v>3.4402600510579813</v>
+        <v>3.4402600510579862</v>
       </c>
       <c r="R39" s="242">
-        <v>0.14669469932051005</v>
+        <v>0.14669469935077931</v>
       </c>
     </row>
     <row r="40" outlineLevel="2">
       <c r="A40" s="289" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B40" s="242">
         <v>7.6157673173</v>
@@ -7151,7 +7157,7 @@
         <v>4717.2013475646627</v>
       </c>
       <c r="E40" s="241">
-        <v>4673.0101001786907</v>
+        <v>4673.0101001786807</v>
       </c>
       <c r="F40" s="241">
         <v>4637.0675917800872</v>
@@ -7195,7 +7201,7 @@
     </row>
     <row r="41" outlineLevel="2">
       <c r="A41" s="289" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B41" s="242">
         <v>7.6157673173000004</v>
@@ -7222,7 +7228,7 @@
         <v>3643.6382649909397</v>
       </c>
       <c r="J41" s="241">
-        <v>3584.9281663129732</v>
+        <v>3584.9281663129632</v>
       </c>
       <c r="K41" s="241">
         <v>3527.849127498323</v>
@@ -7251,7 +7257,7 @@
     </row>
     <row r="42" outlineLevel="2">
       <c r="A42" s="290" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B42" s="286">
         <v>7.6157673173</v>
@@ -7263,7 +7269,7 @@
         <v>8522.0846945208432</v>
       </c>
       <c r="E42" s="287">
-        <v>8439.206974083756</v>
+        <v>8439.2069740837433</v>
       </c>
       <c r="F42" s="287">
         <v>8371.9626116549134</v>
@@ -7278,7 +7284,7 @@
         <v>8175.8180584519769</v>
       </c>
       <c r="J42" s="287">
-        <v>8049.5458323421071</v>
+        <v>8049.5458323420962</v>
       </c>
       <c r="K42" s="287">
         <v>7926.7176121518169</v>
@@ -7307,7 +7313,7 @@
     </row>
     <row r="43" outlineLevel="2">
       <c r="A43" s="284" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B43" s="242">
         <v>5.9518943296</v>
@@ -7316,7 +7322,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="241">
-        <v>1140.5902900310923</v>
+        <v>1140.5902900310823</v>
       </c>
       <c r="E43" s="241">
         <v>1114.994204793567</v>
@@ -7334,13 +7340,13 @@
         <v>1040.5962645538161</v>
       </c>
       <c r="J43" s="241">
-        <v>1005.6953740742373</v>
+        <v>1005.6953740742363</v>
       </c>
       <c r="K43" s="241">
         <v>972.23130782263263</v>
       </c>
       <c r="L43" s="241">
-        <v>940.13724418507456</v>
+        <v>940.13724418507354</v>
       </c>
       <c r="M43" s="241">
         <v>992.94342077308272</v>
@@ -7363,7 +7369,7 @@
     </row>
     <row r="44" outlineLevel="1">
       <c r="A44" s="285" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B44" s="286">
         <v>5.9186654191109449</v>
@@ -7372,34 +7378,34 @@
         <v>19.392197125256672</v>
       </c>
       <c r="D44" s="287">
-        <v>98485.988488010189</v>
+        <v>98485.98848800789</v>
       </c>
       <c r="E44" s="287">
-        <v>97196.022020703123</v>
+        <v>97196.022020699136</v>
       </c>
       <c r="F44" s="287">
-        <v>96078.036390139241</v>
+        <v>96078.0363901365</v>
       </c>
       <c r="G44" s="288">
-        <v>94891.293904418271</v>
+        <v>94891.293904417267</v>
       </c>
       <c r="H44" s="287">
-        <v>93685.374899179544</v>
+        <v>93685.374899179136</v>
       </c>
       <c r="I44" s="287">
-        <v>92561.299145002646</v>
+        <v>92561.299144982244</v>
       </c>
       <c r="J44" s="287">
-        <v>90421.480043473071</v>
+        <v>90421.480043470467</v>
       </c>
       <c r="K44" s="287">
-        <v>87113.1042958692</v>
+        <v>87113.104295870333</v>
       </c>
       <c r="L44" s="287">
-        <v>83478.673884290416</v>
+        <v>83478.67388429225</v>
       </c>
       <c r="M44" s="287">
-        <v>89648.8161936955</v>
+        <v>89648.816193692473</v>
       </c>
       <c r="N44" s="287">
         <v>87638</v>
@@ -7408,24 +7414,24 @@
         <v>0</v>
       </c>
       <c r="P44" s="286">
-        <v>108.27642564232214</v>
+        <v>108.27642564232099</v>
       </c>
       <c r="Q44" s="286">
-        <v>2.5424974024836082</v>
+        <v>2.5424974024804148</v>
       </c>
       <c r="R44" s="286">
-        <v>0.050861219847516868</v>
+        <v>0.050861219862852761</v>
       </c>
     </row>
     <row r="45" outlineLevel="2">
       <c r="A45" s="284" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B45" s="242">
         <v>0</v>
       </c>
       <c r="C45" s="272" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="241">
         <v>1618</v>
@@ -7475,13 +7481,13 @@
     </row>
     <row r="46" outlineLevel="2">
       <c r="A46" s="284" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B46" s="242">
         <v>0</v>
       </c>
       <c r="C46" s="272" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="241">
         <v>81</v>
@@ -7531,13 +7537,13 @@
     </row>
     <row r="47" outlineLevel="2">
       <c r="A47" s="284" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B47" s="242">
         <v>0</v>
       </c>
       <c r="C47" s="272" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="241">
         <v>1209</v>
@@ -7587,13 +7593,13 @@
     </row>
     <row r="48" outlineLevel="2">
       <c r="A48" s="284" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B48" s="242">
         <v>0</v>
       </c>
       <c r="C48" s="272" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="241">
         <v>-725</v>
@@ -7643,13 +7649,13 @@
     </row>
     <row r="49" outlineLevel="1">
       <c r="A49" s="285" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B49" s="286">
         <v>0</v>
       </c>
       <c r="C49" s="295" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D49" s="287">
         <v>2183</v>
@@ -7699,7 +7705,7 @@
     </row>
     <row r="50">
       <c r="A50" s="296" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" s="286">
         <v>5.170114552357802</v>
@@ -7708,34 +7714,34 @@
         <v>17.305954825462013</v>
       </c>
       <c r="D50" s="287">
-        <v>116338.42734398923</v>
+        <v>116338.42734398674</v>
       </c>
       <c r="E50" s="287">
-        <v>114795.2348916972</v>
+        <v>114795.23489169337</v>
       </c>
       <c r="F50" s="287">
-        <v>113509.08046013973</v>
+        <v>113509.0804601376</v>
       </c>
       <c r="G50" s="288">
-        <v>112153.55805661147</v>
+        <v>112153.55805661112</v>
       </c>
       <c r="H50" s="287">
-        <v>110781.24529712075</v>
+        <v>110781.245297121</v>
       </c>
       <c r="I50" s="287">
-        <v>109494.96036181765</v>
+        <v>109494.96036179793</v>
       </c>
       <c r="J50" s="287">
-        <v>107045.55042771756</v>
+        <v>107045.55042771563</v>
       </c>
       <c r="K50" s="287">
-        <v>103448.56351612024</v>
+        <v>103448.56351612197</v>
       </c>
       <c r="L50" s="287">
-        <v>99546.1010337897</v>
+        <v>99546.101033792074</v>
       </c>
       <c r="M50" s="287">
-        <v>106388.637195554</v>
+        <v>106388.63719555162</v>
       </c>
       <c r="N50" s="287">
         <v>104581</v>
@@ -7744,18 +7750,18 @@
         <v>0</v>
       </c>
       <c r="P50" s="286">
-        <v>107.24085451144229</v>
+        <v>107.24085451144197</v>
       </c>
       <c r="Q50" s="286">
-        <v>2.450699984151254</v>
+        <v>2.450699984148407</v>
       </c>
       <c r="R50" s="286">
-        <v>0.052130450739404</v>
+        <v>0.052130450757569148</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="269" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B52" s="270"/>
       <c r="C52" s="270"/>
@@ -7777,7 +7783,7 @@
     </row>
     <row r="53" outlineLevel="2">
       <c r="A53" s="284" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B53" s="242">
         <v>1.19556979049893</v>
@@ -7798,22 +7804,22 @@
         <v>40682.7667188486</v>
       </c>
       <c r="H53" s="241">
-        <v>40486.251268465</v>
+        <v>40486.251268465196</v>
       </c>
       <c r="I53" s="241">
-        <v>40292.681730162905</v>
+        <v>40292.681730163</v>
       </c>
       <c r="J53" s="241">
-        <v>39914.1763081457</v>
+        <v>39914.1763081458</v>
       </c>
       <c r="K53" s="241">
-        <v>39546.617366897</v>
+        <v>39546.6173668971</v>
       </c>
       <c r="L53" s="241">
-        <v>39189.542493201705</v>
+        <v>39189.5424932018</v>
       </c>
       <c r="M53" s="241">
-        <v>39680.9082523819</v>
+        <v>39680.908252382</v>
       </c>
       <c r="N53" s="241">
         <v>40901</v>
@@ -7825,51 +7831,51 @@
         <v>99.466435341064042</v>
       </c>
       <c r="Q53" s="242">
-        <v>0.97612276173563028</v>
+        <v>0.97612276173688217</v>
       </c>
       <c r="R53" s="242">
-        <v>0.04976320005410062</v>
+        <v>0.049763200079139085</v>
       </c>
     </row>
     <row r="54" outlineLevel="2">
       <c r="A54" s="284" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B54" s="242">
         <v>0.80152102589999985</v>
       </c>
       <c r="C54" s="272" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D54" s="241">
-        <v>1726.2027071345299</v>
+        <v>1726.2027071345901</v>
       </c>
       <c r="E54" s="241">
-        <v>1657.65000075036</v>
+        <v>1657.6500007505902</v>
       </c>
       <c r="F54" s="241">
-        <v>1629.64872132798</v>
+        <v>1629.64872132819</v>
       </c>
       <c r="G54" s="273">
-        <v>1603.51384266222</v>
+        <v>1603.5138426624299</v>
       </c>
       <c r="H54" s="241">
-        <v>1579.0726208377298</v>
+        <v>1579.07262083792</v>
       </c>
       <c r="I54" s="241">
-        <v>1556.17122664402</v>
+        <v>1556.17122664421</v>
       </c>
       <c r="J54" s="241">
-        <v>1514.4537264358698</v>
+        <v>1514.45372643604</v>
       </c>
       <c r="K54" s="241">
-        <v>1477.4290302327302</v>
+        <v>1477.42903023288</v>
       </c>
       <c r="L54" s="241">
-        <v>1444.34834441126</v>
+        <v>1444.3483444114</v>
       </c>
       <c r="M54" s="241">
-        <v>1536.87351965127</v>
+        <v>1536.87351965145</v>
       </c>
       <c r="N54" s="241">
         <v>1818</v>
@@ -7878,54 +7884,54 @@
         <v>0</v>
       </c>
       <c r="P54" s="242">
-        <v>88.20208155457756</v>
+        <v>88.2020815545891</v>
       </c>
       <c r="Q54" s="242">
-        <v>3.150830558613646</v>
+        <v>3.1508305586163532</v>
       </c>
       <c r="R54" s="242">
-        <v>0.42210980247959706</v>
+        <v>0.422109802419987</v>
       </c>
     </row>
     <row r="55" outlineLevel="2">
       <c r="A55" s="284" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B55" s="242">
         <v>0.8015210259</v>
       </c>
       <c r="C55" s="272" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D55" s="241">
-        <v>25001.620562999502</v>
+        <v>25001.6205629998</v>
       </c>
       <c r="E55" s="241">
-        <v>24395.423580301</v>
+        <v>24395.4235803029</v>
       </c>
       <c r="F55" s="241">
-        <v>24203.6109825571</v>
+        <v>24203.610982559</v>
       </c>
       <c r="G55" s="273">
-        <v>24018.829166609</v>
+        <v>24018.829166610798</v>
       </c>
       <c r="H55" s="241">
-        <v>23840.6686474328</v>
+        <v>23840.6686474345</v>
       </c>
       <c r="I55" s="241">
-        <v>23668.7509770401</v>
+        <v>23668.7509770418</v>
       </c>
       <c r="J55" s="241">
-        <v>23342.2689699943</v>
+        <v>23342.2689699958</v>
       </c>
       <c r="K55" s="241">
-        <v>23036.876302108798</v>
+        <v>23036.8763021102</v>
       </c>
       <c r="L55" s="241">
-        <v>22750.4099968051</v>
+        <v>22750.4099968064</v>
       </c>
       <c r="M55" s="241">
-        <v>23378.6773961482</v>
+        <v>23378.6773961498</v>
       </c>
       <c r="N55" s="241">
         <v>25006</v>
@@ -7934,54 +7940,54 @@
         <v>0</v>
       </c>
       <c r="P55" s="242">
-        <v>96.05226412304647</v>
+        <v>96.052264123053661</v>
       </c>
       <c r="Q55" s="242">
-        <v>1.5105501255838925</v>
+        <v>1.5105501255859</v>
       </c>
       <c r="R55" s="242">
-        <v>0.11022714261544346</v>
+        <v>0.11022714257605466</v>
       </c>
     </row>
     <row r="56" outlineLevel="2">
       <c r="A56" s="284" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B56" s="242">
         <v>0.281119982</v>
       </c>
       <c r="C56" s="272" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D56" s="241">
-        <v>8980.37824203244</v>
+        <v>8980.37824203246</v>
       </c>
       <c r="E56" s="241">
-        <v>8812.91318825881</v>
+        <v>8812.91318826685</v>
       </c>
       <c r="F56" s="241">
-        <v>8698.0517583399687</v>
+        <v>8698.05175834784</v>
       </c>
       <c r="G56" s="273">
-        <v>8628.819204122281</v>
+        <v>8628.8192041225811</v>
       </c>
       <c r="H56" s="241">
-        <v>8596.80939479796</v>
+        <v>8596.80939479825</v>
       </c>
       <c r="I56" s="241">
-        <v>8565.42820877264</v>
+        <v>8565.42820877293</v>
       </c>
       <c r="J56" s="241">
-        <v>8504.46106667149</v>
+        <v>8504.46106667176</v>
       </c>
       <c r="K56" s="241">
-        <v>8445.74780137561</v>
+        <v>8445.74780137587</v>
       </c>
       <c r="L56" s="241">
-        <v>8389.13495925139</v>
+        <v>8389.134959251649</v>
       </c>
       <c r="M56" s="241">
-        <v>8490.1771708228989</v>
+        <v>8490.1771708232882</v>
       </c>
       <c r="N56" s="241">
         <v>8893</v>
@@ -7990,54 +7996,54 @@
         <v>0</v>
       </c>
       <c r="P56" s="242">
-        <v>97.029339976636464</v>
+        <v>97.029339976639847</v>
       </c>
       <c r="Q56" s="242">
-        <v>0.74940144215905657</v>
+        <v>0.749401442159663</v>
       </c>
       <c r="R56" s="242">
-        <v>0.030257953816443143</v>
+        <v>0.030257953803793852</v>
       </c>
     </row>
     <row r="57" outlineLevel="2">
       <c r="A57" s="284" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B57" s="242">
         <v>0</v>
       </c>
       <c r="C57" s="272" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D57" s="241">
         <v>15449.5638268403</v>
       </c>
       <c r="E57" s="241">
-        <v>15229.9036520601</v>
+        <v>15229.9036520618</v>
       </c>
       <c r="F57" s="241">
-        <v>15086.247302959699</v>
+        <v>15086.2473029614</v>
       </c>
       <c r="G57" s="273">
-        <v>14945.5606565359</v>
+        <v>14945.5606565376</v>
       </c>
       <c r="H57" s="241">
-        <v>14807.752333660601</v>
+        <v>14807.7523336622</v>
       </c>
       <c r="I57" s="241">
-        <v>14672.734661808601</v>
+        <v>14672.7346618102</v>
       </c>
       <c r="J57" s="241">
-        <v>14410.7380103128</v>
+        <v>14410.7380103143</v>
       </c>
       <c r="K57" s="241">
-        <v>14158.936663627399</v>
+        <v>14158.9366636289</v>
       </c>
       <c r="L57" s="241">
-        <v>13916.7450825527</v>
+        <v>13916.7450825541</v>
       </c>
       <c r="M57" s="241">
-        <v>14300.6977718613</v>
+        <v>14300.6977718629</v>
       </c>
       <c r="N57" s="241">
         <v>15132</v>
@@ -8046,18 +8052,18 @@
         <v>0</v>
       </c>
       <c r="P57" s="242">
-        <v>98.767913405603352</v>
+        <v>98.767913405614593</v>
       </c>
       <c r="Q57" s="242">
-        <v>1.8632043291745903</v>
+        <v>1.8632043291745</v>
       </c>
       <c r="R57" s="242">
-        <v>0.07702694361761056</v>
+        <v>0.07702694361516764</v>
       </c>
     </row>
     <row r="58" outlineLevel="1">
       <c r="A58" s="285" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B58" s="286">
         <v>0.79455040871786742</v>
@@ -8066,34 +8072,34 @@
         <v>0.92265571526351808</v>
       </c>
       <c r="D58" s="287">
-        <v>92523.669085775167</v>
+        <v>92523.669085775546</v>
       </c>
       <c r="E58" s="287">
-        <v>91184.375108545777</v>
+        <v>91184.375108557622</v>
       </c>
       <c r="F58" s="287">
-        <v>90501.141932188752</v>
+        <v>90501.141932200422</v>
       </c>
       <c r="G58" s="288">
-        <v>89879.489588777986</v>
+        <v>89879.489588782017</v>
       </c>
       <c r="H58" s="287">
-        <v>89310.5542651941</v>
+        <v>89310.554265198065</v>
       </c>
       <c r="I58" s="287">
-        <v>88755.766804428262</v>
+        <v>88755.766804432133</v>
       </c>
       <c r="J58" s="287">
-        <v>87686.098081560165</v>
+        <v>87686.0980815637</v>
       </c>
       <c r="K58" s="287">
-        <v>86665.607164241534</v>
+        <v>86665.607164244953</v>
       </c>
       <c r="L58" s="287">
-        <v>85690.180876222163</v>
+        <v>85690.180876225349</v>
       </c>
       <c r="M58" s="287">
-        <v>87387.334110865573</v>
+        <v>87387.334110869444</v>
       </c>
       <c r="N58" s="287">
         <v>91750</v>
@@ -8102,24 +8108,24 @@
         <v>0</v>
       </c>
       <c r="P58" s="286">
-        <v>97.961296554526413</v>
+        <v>97.9612965545308</v>
       </c>
       <c r="Q58" s="286">
-        <v>1.2834797330955499</v>
+        <v>1.2834797330967065</v>
       </c>
       <c r="R58" s="286">
-        <v>0.075225079499422587</v>
+        <v>0.075225079494562072</v>
       </c>
     </row>
     <row r="59" outlineLevel="2">
       <c r="A59" s="284" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B59" s="242">
         <v>0</v>
       </c>
       <c r="C59" s="272" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D59" s="241">
         <v>371</v>
@@ -8169,13 +8175,13 @@
     </row>
     <row r="60" outlineLevel="1">
       <c r="A60" s="285" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B60" s="286">
         <v>0</v>
       </c>
       <c r="C60" s="295" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D60" s="287">
         <v>371</v>
@@ -8225,7 +8231,7 @@
     </row>
     <row r="61">
       <c r="A61" s="296" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B61" s="286">
         <v>0.79135050639771976</v>
@@ -8234,34 +8240,34 @@
         <v>0.92265571526351808</v>
       </c>
       <c r="D61" s="287">
-        <v>92894.669085775167</v>
+        <v>92894.669085775546</v>
       </c>
       <c r="E61" s="287">
-        <v>91555.375108545777</v>
+        <v>91555.375108557622</v>
       </c>
       <c r="F61" s="287">
-        <v>90872.141932188752</v>
+        <v>90872.141932200422</v>
       </c>
       <c r="G61" s="288">
-        <v>90250.489588777986</v>
+        <v>90250.489588782017</v>
       </c>
       <c r="H61" s="287">
-        <v>89681.5542651941</v>
+        <v>89681.554265198065</v>
       </c>
       <c r="I61" s="287">
-        <v>89126.766804428262</v>
+        <v>89126.766804432133</v>
       </c>
       <c r="J61" s="287">
-        <v>88057.098081560165</v>
+        <v>88057.0980815637</v>
       </c>
       <c r="K61" s="287">
-        <v>87036.607164241534</v>
+        <v>87036.607164244953</v>
       </c>
       <c r="L61" s="287">
-        <v>86061.180876222163</v>
+        <v>86061.180876225349</v>
       </c>
       <c r="M61" s="287">
-        <v>87758.334110865573</v>
+        <v>87758.334110869444</v>
       </c>
       <c r="N61" s="287">
         <v>92121</v>
@@ -8270,18 +8276,18 @@
         <v>0</v>
       </c>
       <c r="P61" s="286">
-        <v>97.969507049183122</v>
+        <v>97.9695070491875</v>
       </c>
       <c r="Q61" s="286">
-        <v>1.2782036289641694</v>
+        <v>1.2782036289653216</v>
       </c>
       <c r="R61" s="286">
-        <v>0.07491584567009435</v>
+        <v>0.074915845665253819</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="269" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B63" s="270"/>
       <c r="C63" s="270"/>
@@ -8303,7 +8309,7 @@
     </row>
     <row r="64">
       <c r="A64" s="296" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B64" s="286">
         <v>37.543800160535064</v>
@@ -8312,34 +8318,34 @@
         <v>12.856947296372347</v>
       </c>
       <c r="D64" s="287">
-        <v>23443.758258214057</v>
+        <v>23443.758258211186</v>
       </c>
       <c r="E64" s="287">
-        <v>23239.859783151413</v>
+        <v>23239.859783135737</v>
       </c>
       <c r="F64" s="287">
-        <v>22636.93852795097</v>
+        <v>22636.938527937189</v>
       </c>
       <c r="G64" s="288">
-        <v>21903.068467833476</v>
+        <v>21903.068467829104</v>
       </c>
       <c r="H64" s="287">
-        <v>21099.691031926643</v>
+        <v>21099.691031922939</v>
       </c>
       <c r="I64" s="287">
-        <v>20368.193557389375</v>
+        <v>20368.19355736579</v>
       </c>
       <c r="J64" s="287">
-        <v>18988.452346157406</v>
+        <v>18988.452346151931</v>
       </c>
       <c r="K64" s="287">
-        <v>16411.956351878704</v>
+        <v>16411.956351877019</v>
       </c>
       <c r="L64" s="287">
-        <v>13484.920157567549</v>
+        <v>13484.920157566734</v>
       </c>
       <c r="M64" s="287">
-        <v>18630.303084688418</v>
+        <v>18630.303084682178</v>
       </c>
       <c r="N64" s="287">
         <v>12460</v>
@@ -8348,13 +8354,13 @@
         <v>0</v>
       </c>
       <c r="P64" s="286">
-        <v>175.78706635500382</v>
+        <v>175.78706635496872</v>
       </c>
       <c r="Q64" s="286">
-        <v>7.2819121155517195</v>
+        <v>7.2819121155334079</v>
       </c>
       <c r="R64" s="286">
-        <v>-0.04175562056555733</v>
+        <v>-0.041755620455943311</v>
       </c>
     </row>
   </sheetData>
@@ -8376,7 +8382,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection sqref="A1:Q1"/>
@@ -9065,6 +9071,11 @@
     <row r="78">
       <c r="A78" s="227" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="227" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
